--- a/data/Daily_TankSpotChecks_2023.xlsx
+++ b/data/Daily_TankSpotChecks_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2023\Eelgrass_Mesocosm\Data_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2023\Eelgrass_Mesocosm\Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E13AA2A-24DD-4247-B9F6-01B66D7E5059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B488015-511C-4BC4-9D2D-AA53BFFA1F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="128">
   <si>
     <t>T (C)</t>
   </si>
@@ -335,6 +335,81 @@
   </si>
   <si>
     <t>4 -&gt; 13</t>
+  </si>
+  <si>
+    <t>unbury oysters, stirred up to increase DO</t>
+  </si>
+  <si>
+    <t>stirred up to increase DO</t>
+  </si>
+  <si>
+    <t>KB, FR</t>
+  </si>
+  <si>
+    <t>1 -&gt; 12</t>
+  </si>
+  <si>
+    <t>KP, FR</t>
+  </si>
+  <si>
+    <t>12 -&gt; 14</t>
+  </si>
+  <si>
+    <t>11 -&gt; 14</t>
+  </si>
+  <si>
+    <t>10 -&gt; 14</t>
+  </si>
+  <si>
+    <t>9 -&gt; 14</t>
+  </si>
+  <si>
+    <t>barnacle nudibranch spotted; murky</t>
+  </si>
+  <si>
+    <t>inlet leaking</t>
+  </si>
+  <si>
+    <t>set flow to 14 L/min</t>
+  </si>
+  <si>
+    <t>to mitigate warm</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>1 -&gt; 14</t>
+  </si>
+  <si>
+    <t>10 - &gt; 14</t>
+  </si>
+  <si>
+    <t>8 -&gt; 14</t>
+  </si>
+  <si>
+    <t>7 -&gt; 14</t>
+  </si>
+  <si>
+    <t>low flow</t>
+  </si>
+  <si>
+    <t>murky, gross inlet, looked at water under microscope</t>
+  </si>
+  <si>
+    <t>3 -&gt; 14</t>
+  </si>
+  <si>
+    <t>flow rates were hard today</t>
+  </si>
+  <si>
+    <t>oysters buried; A LOT of diatom mass</t>
+  </si>
+  <si>
+    <t>very low DO</t>
+  </si>
+  <si>
+    <t>oysters buried</t>
   </si>
 </sst>
 </file>
@@ -418,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,9 +525,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,6 +532,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2249,11 +2330,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P181"/>
+  <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P173" sqref="P173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2281,22 +2362,22 @@
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2343,7 +2424,7 @@
       <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -2373,11 +2454,11 @@
       <c r="J3" s="2">
         <v>9.85</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="14">
+      <c r="K3" s="18"/>
+      <c r="L3" s="13">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>0.60763888888888895</v>
       </c>
       <c r="N3" t="s">
@@ -2421,11 +2502,11 @@
       <c r="J4" s="2">
         <v>12.2</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
       <c r="N4" t="s">
         <v>27</v>
       </c>
@@ -2464,11 +2545,11 @@
       <c r="J5" s="2">
         <v>12.8</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
       <c r="N5" t="s">
         <v>27</v>
       </c>
@@ -2507,11 +2588,11 @@
       <c r="J6" s="2">
         <v>11.4</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
       <c r="N6" t="s">
         <v>27</v>
       </c>
@@ -2553,11 +2634,11 @@
       <c r="J7" s="2">
         <v>12.95</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
       <c r="N7" t="s">
         <v>27</v>
       </c>
@@ -2599,11 +2680,11 @@
       <c r="J8" s="2">
         <v>11.65</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
       <c r="N8" t="s">
         <v>27</v>
       </c>
@@ -2642,11 +2723,11 @@
       <c r="J9" s="2">
         <v>11.1</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
       <c r="N9" t="s">
         <v>27</v>
       </c>
@@ -2685,11 +2766,11 @@
       <c r="J10" s="2">
         <v>11.81</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
       <c r="N10" t="s">
         <v>27</v>
       </c>
@@ -2728,11 +2809,11 @@
       <c r="J11" s="2">
         <v>11.29</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
       <c r="N11" t="s">
         <v>27</v>
       </c>
@@ -2763,7 +2844,7 @@
       <c r="J12" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="11">
         <v>0.3979166666666667</v>
       </c>
@@ -2811,7 +2892,7 @@
       <c r="J13" s="2">
         <v>8.25</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="18" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="11"/>
@@ -2854,7 +2935,7 @@
       <c r="J14" s="2">
         <v>8.5</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="18" t="s">
         <v>29</v>
       </c>
       <c r="L14" s="2"/>
@@ -2896,7 +2977,7 @@
       <c r="J15" s="2">
         <v>9.83</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="18" t="s">
         <v>30</v>
       </c>
       <c r="L15" s="2"/>
@@ -2938,7 +3019,7 @@
       <c r="J16" s="2">
         <v>10.23</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="18" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="2"/>
@@ -2980,7 +3061,7 @@
       <c r="J17" s="2">
         <v>8.98</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="18" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2"/>
@@ -3022,7 +3103,7 @@
       <c r="J18" s="2">
         <v>8.48</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="18" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="2"/>
@@ -3064,7 +3145,7 @@
       <c r="J19" s="2">
         <v>8.81</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="18" t="s">
         <v>33</v>
       </c>
       <c r="L19" s="2"/>
@@ -3106,7 +3187,7 @@
       <c r="J20" s="2">
         <v>7.17</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="18" t="s">
         <v>29</v>
       </c>
       <c r="L20" s="2"/>
@@ -3140,11 +3221,11 @@
       <c r="J21" s="2">
         <v>8.16</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="14">
+      <c r="K21" s="18"/>
+      <c r="L21" s="13">
         <v>0.35069444444444442</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="14">
         <v>0.38472222222222219</v>
       </c>
       <c r="N21" t="s">
@@ -3185,7 +3266,7 @@
       <c r="J22" s="2">
         <v>7.13</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="18">
         <v>13</v>
       </c>
       <c r="L22" s="2"/>
@@ -3227,7 +3308,7 @@
       <c r="J23" s="2">
         <v>7.25</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L23" s="2"/>
@@ -3269,7 +3350,7 @@
       <c r="J24" s="2">
         <v>7.44</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="18" t="s">
         <v>44</v>
       </c>
       <c r="L24" s="2"/>
@@ -3311,7 +3392,7 @@
       <c r="J25" s="2">
         <v>7.82</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="18" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="2"/>
@@ -3353,7 +3434,7 @@
       <c r="J26" s="2">
         <v>7.64</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="18">
         <v>13</v>
       </c>
       <c r="L26" s="2"/>
@@ -3395,7 +3476,7 @@
       <c r="J27" s="2">
         <v>8.0399999999999991</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="18">
         <v>13</v>
       </c>
       <c r="L27" s="2"/>
@@ -3437,7 +3518,7 @@
       <c r="J28" s="2">
         <v>7.9</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="18" t="s">
         <v>46</v>
       </c>
       <c r="L28" s="2"/>
@@ -3479,7 +3560,7 @@
       <c r="J29" s="2">
         <v>7.86</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="18">
         <v>13</v>
       </c>
       <c r="L29" s="2"/>
@@ -3513,11 +3594,11 @@
       <c r="J30" s="2">
         <v>8.14</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="14">
+      <c r="K30" s="18"/>
+      <c r="L30" s="13">
         <v>0.3666666666666667</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="14">
         <v>0.40763888888888888</v>
       </c>
       <c r="N30" t="s">
@@ -3561,7 +3642,7 @@
       <c r="J31" s="2">
         <v>6.94</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="18" t="s">
         <v>48</v>
       </c>
       <c r="N31" t="s">
@@ -3605,7 +3686,7 @@
       <c r="J32" s="2">
         <v>6.9</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="18" t="s">
         <v>49</v>
       </c>
       <c r="N32" t="s">
@@ -3646,7 +3727,7 @@
       <c r="J33" s="2">
         <v>7.5</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="18" t="s">
         <v>50</v>
       </c>
       <c r="N33" t="s">
@@ -3687,7 +3768,7 @@
       <c r="J34" s="2">
         <v>7.16</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="18" t="s">
         <v>51</v>
       </c>
       <c r="N34" t="s">
@@ -3728,7 +3809,7 @@
       <c r="J35" s="2">
         <v>6.2</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="18" t="s">
         <v>51</v>
       </c>
       <c r="N35" t="s">
@@ -3769,7 +3850,7 @@
       <c r="J36" s="2">
         <v>6.94</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="18">
         <v>14</v>
       </c>
       <c r="N36" t="s">
@@ -3810,7 +3891,7 @@
       <c r="J37" s="2">
         <v>7.85</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="18" t="s">
         <v>52</v>
       </c>
       <c r="N37" t="s">
@@ -3851,7 +3932,7 @@
       <c r="J38" s="2">
         <v>6.8</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="18" t="s">
         <v>51</v>
       </c>
       <c r="N38" t="s">
@@ -3862,7 +3943,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>45089</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3877,13 +3958,14 @@
         <v>28.59</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <v>7.83</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2">
         <v>8.57</v>
       </c>
+      <c r="K39" s="18"/>
       <c r="L39" s="12">
         <v>0.35833333333333334</v>
       </c>
@@ -3901,7 +3983,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>45089</v>
       </c>
       <c r="B40" s="2">
@@ -3931,7 +4013,7 @@
       <c r="J40" s="2">
         <v>7.63</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N40" t="s">
@@ -3945,7 +4027,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>45089</v>
       </c>
       <c r="B41" s="2">
@@ -3975,7 +4057,7 @@
       <c r="J41" s="2">
         <v>7.13</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="18" t="s">
         <v>55</v>
       </c>
       <c r="L41" t="s">
@@ -3989,7 +4071,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>45089</v>
       </c>
       <c r="B42" s="2">
@@ -4019,7 +4101,7 @@
       <c r="J42" s="2">
         <v>7.9</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="18" t="s">
         <v>29</v>
       </c>
       <c r="N42" t="s">
@@ -4030,7 +4112,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>45089</v>
       </c>
       <c r="B43" s="2">
@@ -4060,7 +4142,7 @@
       <c r="J43" s="2">
         <v>8.16</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="18" t="s">
         <v>29</v>
       </c>
       <c r="N43" t="s">
@@ -4071,7 +4153,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>45089</v>
       </c>
       <c r="B44" s="2">
@@ -4101,7 +4183,7 @@
       <c r="J44" s="2">
         <v>7.93</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="18" t="s">
         <v>29</v>
       </c>
       <c r="N44" t="s">
@@ -4112,7 +4194,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>45089</v>
       </c>
       <c r="B45" s="2">
@@ -4142,7 +4224,7 @@
       <c r="J45" s="2">
         <v>8.1300000000000008</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="18">
         <v>12</v>
       </c>
       <c r="N45" t="s">
@@ -4153,7 +4235,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>45089</v>
       </c>
       <c r="B46" s="2">
@@ -4183,7 +4265,7 @@
       <c r="J46" s="2">
         <v>8.15</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="18">
         <v>12</v>
       </c>
       <c r="N46" t="s">
@@ -4194,7 +4276,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>45089</v>
       </c>
       <c r="B47" s="2">
@@ -4224,7 +4306,7 @@
       <c r="J47" s="2">
         <v>7.44</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N47" t="s">
@@ -4235,7 +4317,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>45090</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4253,6 +4335,7 @@
       <c r="J48" s="2">
         <v>7.8</v>
       </c>
+      <c r="K48" s="18"/>
       <c r="L48" t="s">
         <v>63</v>
       </c>
@@ -4270,7 +4353,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>45090</v>
       </c>
       <c r="B49" s="2">
@@ -4300,7 +4383,7 @@
       <c r="J49" s="2">
         <v>7.2</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="18" t="s">
         <v>60</v>
       </c>
       <c r="N49" t="s">
@@ -4314,7 +4397,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>45090</v>
       </c>
       <c r="B50" s="2">
@@ -4344,7 +4427,7 @@
       <c r="J50" s="2">
         <v>7.22</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="18" t="s">
         <v>61</v>
       </c>
       <c r="N50" t="s">
@@ -4358,7 +4441,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>45090</v>
       </c>
       <c r="B51" s="2">
@@ -4388,7 +4471,7 @@
       <c r="J51" s="2">
         <v>7.51</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="18" t="s">
         <v>61</v>
       </c>
       <c r="N51" t="s">
@@ -4399,7 +4482,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>45090</v>
       </c>
       <c r="B52" s="2">
@@ -4429,7 +4512,7 @@
       <c r="J52" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N52" t="s">
@@ -4440,7 +4523,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>45090</v>
       </c>
       <c r="B53" s="2">
@@ -4470,7 +4553,7 @@
       <c r="J53" s="2">
         <v>8.14</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N53" t="s">
@@ -4481,7 +4564,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>45090</v>
       </c>
       <c r="B54" s="2">
@@ -4511,7 +4594,7 @@
       <c r="J54" s="2">
         <v>7.97</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N54" t="s">
@@ -4522,7 +4605,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>45090</v>
       </c>
       <c r="B55" s="2">
@@ -4552,7 +4635,7 @@
       <c r="J55" s="2">
         <v>8.41</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="18" t="s">
         <v>62</v>
       </c>
       <c r="N55" t="s">
@@ -4566,7 +4649,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>45090</v>
       </c>
       <c r="B56" s="2">
@@ -4596,7 +4679,7 @@
       <c r="J56" s="2">
         <v>7.14</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="18" t="s">
         <v>60</v>
       </c>
       <c r="N56" t="s">
@@ -4610,7 +4693,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>45091</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -4628,10 +4711,11 @@
       <c r="J57" s="2">
         <v>7.72</v>
       </c>
-      <c r="L57" s="15" t="s">
+      <c r="K57" s="18"/>
+      <c r="L57" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="M57" s="15" t="s">
+      <c r="M57" s="14" t="s">
         <v>73</v>
       </c>
       <c r="N57" t="s">
@@ -4642,7 +4726,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>45091</v>
       </c>
       <c r="B58" s="2">
@@ -4672,7 +4756,7 @@
       <c r="J58" s="2">
         <v>7.84</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N58" t="s">
@@ -4686,7 +4770,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>45091</v>
       </c>
       <c r="B59" s="2">
@@ -4716,7 +4800,7 @@
       <c r="J59" s="2">
         <v>8.02</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="18" t="s">
         <v>28</v>
       </c>
       <c r="N59" t="s">
@@ -4727,7 +4811,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>45091</v>
       </c>
       <c r="B60" s="2">
@@ -4757,7 +4841,7 @@
       <c r="J60" s="2">
         <v>8.1</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="18">
         <v>12</v>
       </c>
       <c r="N60" t="s">
@@ -4768,7 +4852,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>45091</v>
       </c>
       <c r="B61" s="2">
@@ -4798,7 +4882,7 @@
       <c r="J61" s="2">
         <v>8.85</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="18">
         <v>12</v>
       </c>
       <c r="N61" t="s">
@@ -4812,7 +4896,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>45091</v>
       </c>
       <c r="B62" s="2">
@@ -4842,7 +4926,7 @@
       <c r="J62" s="2">
         <v>7.85</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N62" t="s">
@@ -4853,7 +4937,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>45091</v>
       </c>
       <c r="B63" s="2">
@@ -4883,7 +4967,7 @@
       <c r="J63" s="2">
         <v>8.3699999999999992</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="18" t="s">
         <v>31</v>
       </c>
       <c r="N63" t="s">
@@ -4894,7 +4978,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>45091</v>
       </c>
       <c r="B64" s="2">
@@ -4924,7 +5008,7 @@
       <c r="J64" s="2">
         <v>8.51</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="18" t="s">
         <v>33</v>
       </c>
       <c r="N64" t="s">
@@ -4935,7 +5019,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>45091</v>
       </c>
       <c r="B65" s="2">
@@ -4965,7 +5049,7 @@
       <c r="J65" s="2">
         <v>7.71</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="18" t="s">
         <v>68</v>
       </c>
       <c r="N65" t="s">
@@ -4976,7 +5060,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="16">
+      <c r="A66" s="15">
         <v>45092</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -4998,10 +5082,11 @@
       <c r="J66" s="2">
         <v>8.58</v>
       </c>
-      <c r="L66" s="15">
+      <c r="K66" s="18"/>
+      <c r="L66" s="14">
         <v>0.375</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="14">
         <v>0.40277777777777773</v>
       </c>
       <c r="N66" t="s">
@@ -5015,7 +5100,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" s="16">
+      <c r="A67" s="15">
         <v>45092</v>
       </c>
       <c r="B67" s="2">
@@ -5045,7 +5130,7 @@
       <c r="J67" s="2">
         <v>8</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="18" t="s">
         <v>32</v>
       </c>
       <c r="N67" t="s">
@@ -5056,7 +5141,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="16">
+      <c r="A68" s="15">
         <v>45092</v>
       </c>
       <c r="B68" s="2">
@@ -5086,7 +5171,7 @@
       <c r="J68" s="2">
         <v>7.88</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="18" t="s">
         <v>33</v>
       </c>
       <c r="N68" t="s">
@@ -5097,7 +5182,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="16">
+      <c r="A69" s="15">
         <v>45092</v>
       </c>
       <c r="B69" s="2">
@@ -5127,7 +5212,7 @@
       <c r="J69" s="2">
         <v>8.33</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="18" t="s">
         <v>32</v>
       </c>
       <c r="N69" t="s">
@@ -5138,7 +5223,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="16">
+      <c r="A70" s="15">
         <v>45092</v>
       </c>
       <c r="B70" s="2">
@@ -5168,7 +5253,7 @@
       <c r="J70" s="2">
         <v>8.92</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="18" t="s">
         <v>33</v>
       </c>
       <c r="N70" t="s">
@@ -5182,7 +5267,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="16">
+      <c r="A71" s="15">
         <v>45092</v>
       </c>
       <c r="B71" s="2">
@@ -5212,7 +5297,7 @@
       <c r="J71" s="2">
         <v>8.39</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N71" t="s">
@@ -5226,7 +5311,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="16">
+      <c r="A72" s="15">
         <v>45092</v>
       </c>
       <c r="B72" s="2">
@@ -5256,7 +5341,7 @@
       <c r="J72" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="18" t="s">
         <v>33</v>
       </c>
       <c r="N72" t="s">
@@ -5267,7 +5352,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="16">
+      <c r="A73" s="15">
         <v>45092</v>
       </c>
       <c r="B73" s="2">
@@ -5297,7 +5382,7 @@
       <c r="J73" s="2">
         <v>8.69</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="18" t="s">
         <v>32</v>
       </c>
       <c r="N73" t="s">
@@ -5308,7 +5393,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" s="16">
+      <c r="A74" s="15">
         <v>45092</v>
       </c>
       <c r="B74" s="2">
@@ -5338,7 +5423,7 @@
       <c r="J74" s="2">
         <v>8.23</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="18" t="s">
         <v>28</v>
       </c>
       <c r="N74" t="s">
@@ -5349,7 +5434,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>45093</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -5367,10 +5452,11 @@
       <c r="J75" s="2">
         <v>9.4499999999999993</v>
       </c>
-      <c r="L75" s="15">
+      <c r="K75" s="18"/>
+      <c r="L75" s="14">
         <v>0.36319444444444443</v>
       </c>
-      <c r="M75" s="15">
+      <c r="M75" s="14">
         <v>0.39097222222222222</v>
       </c>
       <c r="N75" t="s">
@@ -5384,7 +5470,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76" s="16">
+      <c r="A76" s="15">
         <v>45093</v>
       </c>
       <c r="B76" s="2">
@@ -5414,7 +5500,7 @@
       <c r="J76" s="2">
         <v>7.35</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N76" t="s">
@@ -5428,7 +5514,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77" s="16">
+      <c r="A77" s="15">
         <v>45093</v>
       </c>
       <c r="B77" s="2">
@@ -5458,7 +5544,7 @@
       <c r="J77" s="2">
         <v>8.1</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N77" t="s">
@@ -5469,7 +5555,7 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" s="16">
+      <c r="A78" s="15">
         <v>45093</v>
       </c>
       <c r="B78" s="2">
@@ -5499,7 +5585,7 @@
       <c r="J78" s="2">
         <v>7.9</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="18" t="s">
         <v>78</v>
       </c>
       <c r="N78" t="s">
@@ -5510,7 +5596,7 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79" s="16">
+      <c r="A79" s="15">
         <v>45093</v>
       </c>
       <c r="B79" s="2">
@@ -5540,7 +5626,7 @@
       <c r="J79" s="2">
         <v>9.2899999999999991</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="18">
         <v>12</v>
       </c>
       <c r="N79" t="s">
@@ -5551,7 +5637,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="16">
+      <c r="A80" s="15">
         <v>45093</v>
       </c>
       <c r="B80" s="2">
@@ -5581,7 +5667,7 @@
       <c r="J80" s="2">
         <v>8.4499999999999993</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="18">
         <v>12</v>
       </c>
       <c r="N80" t="s">
@@ -5595,7 +5681,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="16">
+      <c r="A81" s="15">
         <v>45093</v>
       </c>
       <c r="B81" s="2">
@@ -5625,7 +5711,7 @@
       <c r="J81" s="2">
         <v>7.96</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="18" t="s">
         <v>78</v>
       </c>
       <c r="N81" t="s">
@@ -5636,7 +5722,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="16">
+      <c r="A82" s="15">
         <v>45093</v>
       </c>
       <c r="B82" s="2">
@@ -5666,7 +5752,7 @@
       <c r="J82" s="2">
         <v>8.07</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N82" t="s">
@@ -5677,7 +5763,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A83" s="16">
+      <c r="A83" s="15">
         <v>45093</v>
       </c>
       <c r="B83" s="2">
@@ -5707,7 +5793,7 @@
       <c r="J83" s="2">
         <v>7.99</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="18">
         <v>12</v>
       </c>
       <c r="N83" t="s">
@@ -5718,7 +5804,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A84" s="16">
+      <c r="A84" s="15">
         <v>45097</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -5740,10 +5826,11 @@
       <c r="J84" s="2">
         <v>8.4</v>
       </c>
-      <c r="L84" s="15">
+      <c r="K84" s="18"/>
+      <c r="L84" s="14">
         <v>0.37152777777777773</v>
       </c>
-      <c r="M84" s="15">
+      <c r="M84" s="14">
         <v>0.89583333333333337</v>
       </c>
       <c r="N84" t="s">
@@ -5757,7 +5844,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A85" s="16">
+      <c r="A85" s="15">
         <v>45097</v>
       </c>
       <c r="B85" s="2">
@@ -5787,7 +5874,7 @@
       <c r="J85" s="2">
         <v>6.33</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" s="18" t="s">
         <v>83</v>
       </c>
       <c r="N85" t="s">
@@ -5801,7 +5888,7 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A86" s="16">
+      <c r="A86" s="15">
         <v>45097</v>
       </c>
       <c r="B86" s="2">
@@ -5831,7 +5918,7 @@
       <c r="J86" s="2">
         <v>6.33</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="18" t="s">
         <v>83</v>
       </c>
       <c r="N86" t="s">
@@ -5845,7 +5932,7 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A87" s="16">
+      <c r="A87" s="15">
         <v>45097</v>
       </c>
       <c r="B87" s="2">
@@ -5875,7 +5962,7 @@
       <c r="J87" s="2">
         <v>6.22</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="18" t="s">
         <v>84</v>
       </c>
       <c r="N87" t="s">
@@ -5889,7 +5976,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A88" s="16">
+      <c r="A88" s="15">
         <v>45097</v>
       </c>
       <c r="B88" s="2">
@@ -5919,7 +6006,7 @@
       <c r="J88" s="2">
         <v>7.18</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="18" t="s">
         <v>84</v>
       </c>
       <c r="N88" t="s">
@@ -5930,7 +6017,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A89" s="16">
+      <c r="A89" s="15">
         <v>45097</v>
       </c>
       <c r="B89" s="2">
@@ -5960,7 +6047,7 @@
       <c r="J89" s="2">
         <v>6.42</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="18" t="s">
         <v>85</v>
       </c>
       <c r="N89" t="s">
@@ -5974,7 +6061,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90" s="16">
+      <c r="A90" s="15">
         <v>45097</v>
       </c>
       <c r="B90" s="2">
@@ -6004,7 +6091,7 @@
       <c r="J90" s="2">
         <v>7.75</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="18" t="s">
         <v>85</v>
       </c>
       <c r="N90" t="s">
@@ -6015,7 +6102,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91" s="16">
+      <c r="A91" s="15">
         <v>45097</v>
       </c>
       <c r="B91" s="2">
@@ -6045,7 +6132,7 @@
       <c r="J91" s="2">
         <v>8.31</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="18" t="s">
         <v>83</v>
       </c>
       <c r="N91" t="s">
@@ -6056,7 +6143,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92" s="16">
+      <c r="A92" s="15">
         <v>45097</v>
       </c>
       <c r="B92" s="2">
@@ -6086,7 +6173,7 @@
       <c r="J92" s="2">
         <v>5.68</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" s="18" t="s">
         <v>85</v>
       </c>
       <c r="N92" t="s">
@@ -6100,7 +6187,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A93" s="16">
+      <c r="A93" s="15">
         <v>45098</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -6120,10 +6207,11 @@
       <c r="J93" s="2">
         <v>9.5</v>
       </c>
-      <c r="L93" s="15">
+      <c r="K93" s="18"/>
+      <c r="L93" s="14">
         <v>0.39305555555555555</v>
       </c>
-      <c r="M93" s="15">
+      <c r="M93" s="14">
         <v>0.41875000000000001</v>
       </c>
       <c r="N93" t="s">
@@ -6134,7 +6222,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A94" s="16">
+      <c r="A94" s="15">
         <v>45098</v>
       </c>
       <c r="B94" s="2">
@@ -6164,7 +6252,7 @@
       <c r="J94" s="2">
         <v>8.2100000000000009</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="18">
         <v>12</v>
       </c>
       <c r="N94" t="s">
@@ -6175,7 +6263,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95" s="16">
+      <c r="A95" s="15">
         <v>45098</v>
       </c>
       <c r="B95" s="2">
@@ -6205,7 +6293,7 @@
       <c r="J95" s="2">
         <v>7.68</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N95" t="s">
@@ -6216,7 +6304,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A96" s="16">
+      <c r="A96" s="15">
         <v>45098</v>
       </c>
       <c r="B96" s="2">
@@ -6246,7 +6334,7 @@
       <c r="J96" s="2">
         <v>8.93</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="18" t="s">
         <v>68</v>
       </c>
       <c r="N96" t="s">
@@ -6257,7 +6345,7 @@
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A97" s="16">
+      <c r="A97" s="15">
         <v>45098</v>
       </c>
       <c r="B97" s="2">
@@ -6287,7 +6375,7 @@
       <c r="J97" s="2">
         <v>8.81</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="18" t="s">
         <v>89</v>
       </c>
       <c r="N97" t="s">
@@ -6298,7 +6386,7 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A98" s="16">
+      <c r="A98" s="15">
         <v>45098</v>
       </c>
       <c r="B98" s="2">
@@ -6328,7 +6416,7 @@
       <c r="J98" s="2">
         <v>7.75</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N98" t="s">
@@ -6339,7 +6427,7 @@
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A99" s="16">
+      <c r="A99" s="15">
         <v>45098</v>
       </c>
       <c r="B99" s="2">
@@ -6369,7 +6457,7 @@
       <c r="J99" s="2">
         <v>7.87</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" s="18" t="s">
         <v>33</v>
       </c>
       <c r="N99" t="s">
@@ -6383,7 +6471,7 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A100" s="16">
+      <c r="A100" s="15">
         <v>45098</v>
       </c>
       <c r="B100" s="2">
@@ -6413,7 +6501,7 @@
       <c r="J100" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="18">
         <v>12</v>
       </c>
       <c r="N100" t="s">
@@ -6424,7 +6512,7 @@
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A101" s="16">
+      <c r="A101" s="15">
         <v>45098</v>
       </c>
       <c r="B101" s="2">
@@ -6454,7 +6542,7 @@
       <c r="J101" s="2">
         <v>6.56</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N101" t="s">
@@ -6468,7 +6556,7 @@
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A102" s="16">
+      <c r="A102" s="15">
         <v>45100</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -6487,10 +6575,11 @@
       <c r="J102" s="2">
         <v>9.6199999999999992</v>
       </c>
-      <c r="L102" s="15">
+      <c r="K102" s="18"/>
+      <c r="L102" s="14">
         <v>0.36458333333333331</v>
       </c>
-      <c r="M102" s="15">
+      <c r="M102" s="14">
         <v>0.3888888888888889</v>
       </c>
       <c r="N102" t="s">
@@ -6504,7 +6593,7 @@
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A103" s="16">
+      <c r="A103" s="15">
         <v>45100</v>
       </c>
       <c r="B103" s="2">
@@ -6534,7 +6623,7 @@
       <c r="J103" s="2">
         <v>8.5299999999999994</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="18">
         <v>12</v>
       </c>
       <c r="N103" t="s">
@@ -6545,7 +6634,7 @@
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A104" s="16">
+      <c r="A104" s="15">
         <v>45100</v>
       </c>
       <c r="B104" s="2">
@@ -6575,7 +6664,7 @@
       <c r="J104" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N104" t="s">
@@ -6586,7 +6675,7 @@
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A105" s="16">
+      <c r="A105" s="15">
         <v>45100</v>
       </c>
       <c r="B105" s="2">
@@ -6616,7 +6705,7 @@
       <c r="J105" s="2">
         <v>7.66</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N105" t="s">
@@ -6627,7 +6716,7 @@
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A106" s="16">
+      <c r="A106" s="15">
         <v>45100</v>
       </c>
       <c r="B106" s="2">
@@ -6657,7 +6746,7 @@
       <c r="J106" s="2">
         <v>9.23</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="18">
         <v>12</v>
       </c>
       <c r="N106" t="s">
@@ -6668,7 +6757,7 @@
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A107" s="16">
+      <c r="A107" s="15">
         <v>45100</v>
       </c>
       <c r="B107" s="2">
@@ -6698,7 +6787,7 @@
       <c r="J107" s="2">
         <v>7.74</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N107" t="s">
@@ -6709,7 +6798,7 @@
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A108" s="16">
+      <c r="A108" s="15">
         <v>45100</v>
       </c>
       <c r="B108" s="2">
@@ -6739,7 +6828,7 @@
       <c r="J108" s="2">
         <v>8.86</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="18">
         <v>12</v>
       </c>
       <c r="N108" t="s">
@@ -6750,7 +6839,7 @@
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A109" s="16">
+      <c r="A109" s="15">
         <v>45100</v>
       </c>
       <c r="B109" s="2">
@@ -6780,7 +6869,7 @@
       <c r="J109" s="2">
         <v>8.75</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="18">
         <v>12</v>
       </c>
       <c r="N109" t="s">
@@ -6791,7 +6880,7 @@
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A110" s="16">
+      <c r="A110" s="15">
         <v>45100</v>
       </c>
       <c r="B110" s="2">
@@ -6821,7 +6910,7 @@
       <c r="J110" s="2">
         <v>6.6</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="K110" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N110" t="s">
@@ -6835,7 +6924,7 @@
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A111" s="16">
+      <c r="A111" s="15">
         <v>45103</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -6857,10 +6946,11 @@
         <v>7.14</v>
       </c>
       <c r="J111" s="2"/>
-      <c r="L111" s="15">
+      <c r="K111" s="18"/>
+      <c r="L111" s="14">
         <v>0.37152777777777773</v>
       </c>
-      <c r="M111" s="15">
+      <c r="M111" s="14">
         <v>0.38750000000000001</v>
       </c>
       <c r="N111" t="s">
@@ -6871,7 +6961,7 @@
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A112" s="16">
+      <c r="A112" s="15">
         <v>45103</v>
       </c>
       <c r="B112" s="2">
@@ -6901,7 +6991,7 @@
       <c r="J112" s="2">
         <v>7.01</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="18">
         <v>12</v>
       </c>
       <c r="N112" t="s">
@@ -6912,7 +7002,7 @@
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A113" s="16">
+      <c r="A113" s="15">
         <v>45103</v>
       </c>
       <c r="B113" s="2">
@@ -6942,7 +7032,7 @@
       <c r="J113" s="2">
         <v>6.66</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N113" t="s">
@@ -6953,7 +7043,7 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A114" s="16">
+      <c r="A114" s="15">
         <v>45103</v>
       </c>
       <c r="B114" s="2">
@@ -6983,7 +7073,7 @@
       <c r="J114" s="2">
         <v>6.53</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="18" t="s">
         <v>95</v>
       </c>
       <c r="N114" t="s">
@@ -6997,7 +7087,7 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A115" s="16">
+      <c r="A115" s="15">
         <v>45103</v>
       </c>
       <c r="B115" s="2">
@@ -7027,7 +7117,7 @@
       <c r="J115" s="2">
         <v>7.23</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="18">
         <v>11</v>
       </c>
       <c r="N115" t="s">
@@ -7041,7 +7131,7 @@
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A116" s="16">
+      <c r="A116" s="15">
         <v>45103</v>
       </c>
       <c r="B116" s="2">
@@ -7071,7 +7161,7 @@
       <c r="J116" s="2">
         <v>6.93</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N116" t="s">
@@ -7085,7 +7175,7 @@
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A117" s="16">
+      <c r="A117" s="15">
         <v>45103</v>
       </c>
       <c r="B117" s="2">
@@ -7115,7 +7205,7 @@
       <c r="J117" s="2">
         <v>7.48</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="18">
         <v>12</v>
       </c>
       <c r="N117" t="s">
@@ -7126,7 +7216,7 @@
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A118" s="16">
+      <c r="A118" s="15">
         <v>45103</v>
       </c>
       <c r="B118" s="2">
@@ -7156,7 +7246,7 @@
       <c r="J118" s="2">
         <v>7.11</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="18">
         <v>12</v>
       </c>
       <c r="N118" t="s">
@@ -7167,7 +7257,7 @@
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A119" s="16">
+      <c r="A119" s="15">
         <v>45103</v>
       </c>
       <c r="B119" s="2">
@@ -7197,7 +7287,7 @@
       <c r="J119" s="2">
         <v>7.18</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N119" t="s">
@@ -7211,7 +7301,7 @@
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A120" s="16">
+      <c r="A120" s="15">
         <v>45104</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -7229,10 +7319,11 @@
       <c r="J120" s="2">
         <v>7.65</v>
       </c>
-      <c r="L120" s="15">
+      <c r="K120" s="18"/>
+      <c r="L120" s="14">
         <v>0.3611111111111111</v>
       </c>
-      <c r="M120" s="15">
+      <c r="M120" s="14">
         <v>0.3833333333333333</v>
       </c>
       <c r="N120" t="s">
@@ -7243,7 +7334,7 @@
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A121" s="16">
+      <c r="A121" s="15">
         <v>45104</v>
       </c>
       <c r="B121" s="2">
@@ -7273,7 +7364,7 @@
       <c r="J121" s="2">
         <v>6.92</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K121" s="18" t="s">
         <v>60</v>
       </c>
       <c r="N121" t="s">
@@ -7284,7 +7375,7 @@
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A122" s="16">
+      <c r="A122" s="15">
         <v>45104</v>
       </c>
       <c r="B122" s="2">
@@ -7314,7 +7405,7 @@
       <c r="J122" s="2">
         <v>6.15</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122" s="18" t="s">
         <v>55</v>
       </c>
       <c r="N122" t="s">
@@ -7325,7 +7416,7 @@
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A123" s="16">
+      <c r="A123" s="15">
         <v>45104</v>
       </c>
       <c r="B123" s="2">
@@ -7355,7 +7446,7 @@
       <c r="J123" s="2">
         <v>6.67</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123" s="18" t="s">
         <v>55</v>
       </c>
       <c r="N123" t="s">
@@ -7366,7 +7457,7 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A124" s="16">
+      <c r="A124" s="15">
         <v>45104</v>
       </c>
       <c r="B124" s="2">
@@ -7396,7 +7487,7 @@
       <c r="J124" s="2">
         <v>7.68</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="18">
         <v>12</v>
       </c>
       <c r="N124" t="s">
@@ -7407,7 +7498,7 @@
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A125" s="16">
+      <c r="A125" s="15">
         <v>45104</v>
       </c>
       <c r="B125" s="2">
@@ -7437,7 +7528,7 @@
       <c r="J125" s="2">
         <v>5.95</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K125" s="18" t="s">
         <v>101</v>
       </c>
       <c r="N125" t="s">
@@ -7451,7 +7542,7 @@
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A126" s="16">
+      <c r="A126" s="15">
         <v>45104</v>
       </c>
       <c r="B126" s="2">
@@ -7481,7 +7572,7 @@
       <c r="J126" s="2">
         <v>7.5</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K126" s="18" t="s">
         <v>78</v>
       </c>
       <c r="N126" t="s">
@@ -7492,7 +7583,7 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A127" s="16">
+      <c r="A127" s="15">
         <v>45104</v>
       </c>
       <c r="B127" s="2">
@@ -7522,7 +7613,7 @@
       <c r="J127" s="2">
         <v>7.07</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="18" t="s">
         <v>89</v>
       </c>
       <c r="N127" t="s">
@@ -7533,7 +7624,7 @@
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A128" s="16">
+      <c r="A128" s="15">
         <v>45104</v>
       </c>
       <c r="B128" s="2">
@@ -7563,7 +7654,7 @@
       <c r="J128" s="2">
         <v>5.95</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="18" t="s">
         <v>102</v>
       </c>
       <c r="N128" t="s">
@@ -7576,269 +7667,1904 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A129" s="15">
+        <v>45105</v>
+      </c>
       <c r="B129" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="D129" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="F129" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="H129" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="J129" s="2">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="K129" s="18"/>
+      <c r="L129" s="14">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="M129" s="14">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="N129" t="s">
+        <v>27</v>
+      </c>
+      <c r="O129" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A130" s="15">
+        <v>45105</v>
+      </c>
       <c r="B130" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C130" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D130" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E130" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="F130" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="G130" s="2">
+        <v>8</v>
+      </c>
+      <c r="H130" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="I130" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="J130" s="2">
+        <v>7.41</v>
+      </c>
+      <c r="K130" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N130" t="s">
+        <v>27</v>
+      </c>
+      <c r="O130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A131" s="15">
+        <v>45105</v>
+      </c>
       <c r="B131" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C131" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D131" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E131" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="F131" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="G131" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="H131" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="I131" s="2">
+        <v>7.12</v>
+      </c>
+      <c r="J131" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="K131" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N131" t="s">
+        <v>27</v>
+      </c>
+      <c r="O131" t="s">
+        <v>99</v>
+      </c>
+      <c r="P131" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A132" s="15">
+        <v>45105</v>
+      </c>
       <c r="B132" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C132" s="2">
+        <v>14</v>
+      </c>
+      <c r="D132" s="2">
+        <v>14</v>
+      </c>
+      <c r="E132" s="2">
+        <v>29.59</v>
+      </c>
+      <c r="F132" s="2">
+        <v>29.58</v>
+      </c>
+      <c r="G132" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="H132" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="I132" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="J132" s="2">
+        <v>6.61</v>
+      </c>
+      <c r="K132" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N132" t="s">
+        <v>27</v>
+      </c>
+      <c r="O132" t="s">
+        <v>99</v>
+      </c>
+      <c r="P132" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A133" s="15">
+        <v>45105</v>
+      </c>
       <c r="B133" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C133" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D133" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="E133" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="F133" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="G133" s="2">
+        <v>8.01</v>
+      </c>
+      <c r="H133" s="2">
+        <v>7.97</v>
+      </c>
+      <c r="I133" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="J133" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="K133" s="18">
+        <v>12</v>
+      </c>
+      <c r="N133" t="s">
+        <v>27</v>
+      </c>
+      <c r="O133" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A134" s="15">
+        <v>45105</v>
+      </c>
       <c r="B134" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C134" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D134" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E134" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="F134" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="G134" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H134" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="I134" s="2">
+        <v>7.24</v>
+      </c>
+      <c r="J134" s="2">
+        <v>7.27</v>
+      </c>
+      <c r="K134" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N134" t="s">
+        <v>27</v>
+      </c>
+      <c r="O134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A135" s="15">
+        <v>45105</v>
+      </c>
       <c r="B135" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C135" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D135" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E135" s="2">
+        <v>29.56</v>
+      </c>
+      <c r="F135" s="2">
+        <v>29.56</v>
+      </c>
+      <c r="G135" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H135" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I135" s="2">
+        <v>8.52</v>
+      </c>
+      <c r="J135" s="2">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="K135" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N135" t="s">
+        <v>27</v>
+      </c>
+      <c r="O135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A136" s="15">
+        <v>45105</v>
+      </c>
       <c r="B136" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C136" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D136" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E136" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="F136" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="G136" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="H136" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="I136" s="2">
+        <v>7.62</v>
+      </c>
+      <c r="J136" s="2">
+        <v>7.73</v>
+      </c>
+      <c r="K136" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N136" t="s">
+        <v>27</v>
+      </c>
+      <c r="O136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A137" s="15">
+        <v>45105</v>
+      </c>
       <c r="B137" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C137" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D137" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E137" s="2">
+        <v>29.56</v>
+      </c>
+      <c r="F137" s="2">
+        <v>29.56</v>
+      </c>
+      <c r="G137" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="H137" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="I137" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="J137" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="K137" s="18">
+        <v>12</v>
+      </c>
+      <c r="N137" t="s">
+        <v>27</v>
+      </c>
+      <c r="O137" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A138" s="15">
+        <v>45106</v>
+      </c>
       <c r="B138" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="D138" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>29.44</v>
+      </c>
+      <c r="H138" s="2">
+        <v>8.07</v>
+      </c>
+      <c r="J138" s="2">
+        <v>8.98</v>
+      </c>
+      <c r="K138" s="18"/>
+      <c r="L138" s="14">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="M138" s="14">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="N138" t="s">
+        <v>27</v>
+      </c>
+      <c r="O138" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A139" s="15">
+        <v>45106</v>
+      </c>
       <c r="B139" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C139" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D139" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E139" s="2">
+        <v>29.54</v>
+      </c>
+      <c r="F139" s="2">
+        <v>29.52</v>
+      </c>
+      <c r="G139" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="H139" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="I139" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="J139" s="2">
+        <v>7.65</v>
+      </c>
+      <c r="K139" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N139" t="s">
+        <v>27</v>
+      </c>
+      <c r="O139" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A140" s="15">
+        <v>45106</v>
+      </c>
       <c r="B140" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C140" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D140" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E140" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F140" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="G140" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="H140" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="I140" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="J140" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="K140" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N140" t="s">
+        <v>27</v>
+      </c>
+      <c r="O140" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A141" s="15">
+        <v>45106</v>
+      </c>
       <c r="B141" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C141" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D141" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E141" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F141" s="2">
+        <v>29.52</v>
+      </c>
+      <c r="G141" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="H141" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="I141" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="J141" s="2">
+        <v>7.77</v>
+      </c>
+      <c r="K141" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N141" t="s">
+        <v>27</v>
+      </c>
+      <c r="O141" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A142" s="15">
+        <v>45106</v>
+      </c>
       <c r="B142" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C142" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D142" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E142" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F142" s="2">
+        <v>29.54</v>
+      </c>
+      <c r="G142" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H142" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I142" s="2">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="J142" s="2">
+        <v>9.36</v>
+      </c>
+      <c r="K142" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N142" t="s">
+        <v>27</v>
+      </c>
+      <c r="O142" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A143" s="15">
+        <v>45106</v>
+      </c>
       <c r="B143" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C143" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D143" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E143" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F143" s="2">
+        <v>29.52</v>
+      </c>
+      <c r="G143" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="H143" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="I143" s="2">
+        <v>7.53</v>
+      </c>
+      <c r="J143" s="2">
+        <v>7.44</v>
+      </c>
+      <c r="K143" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N143" t="s">
+        <v>27</v>
+      </c>
+      <c r="O143" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A144" s="15">
+        <v>45106</v>
+      </c>
       <c r="B144" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C144" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D144" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E144" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F144" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="G144" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="H144" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I144" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="J144" s="2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="K144" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N144" t="s">
+        <v>27</v>
+      </c>
+      <c r="O144" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A145" s="15">
+        <v>45106</v>
+      </c>
       <c r="B145" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C145" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D145" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E145" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F145" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="G145" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="H145" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="I145" s="2">
+        <v>8.76</v>
+      </c>
+      <c r="J145" s="2">
+        <v>8.73</v>
+      </c>
+      <c r="K145" s="18">
+        <v>12</v>
+      </c>
+      <c r="N145" t="s">
+        <v>27</v>
+      </c>
+      <c r="O145" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A146" s="15">
+        <v>45106</v>
+      </c>
       <c r="B146" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C146" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D146" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E146" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F146" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="G146" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="H146" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="I146" s="2">
+        <v>8.14</v>
+      </c>
+      <c r="J146" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="K146" s="18">
+        <v>12</v>
+      </c>
+      <c r="N146" t="s">
+        <v>27</v>
+      </c>
+      <c r="O146" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A147" s="15">
+        <v>45107</v>
+      </c>
       <c r="B147" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="D147" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="F147" s="2">
+        <v>29.44</v>
+      </c>
+      <c r="H147" s="2">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="J147" s="2">
+        <v>8.85</v>
+      </c>
+      <c r="K147" s="18"/>
+      <c r="L147" s="14">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="M147" s="14">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="N147" t="s">
+        <v>27</v>
+      </c>
+      <c r="O147" t="s">
+        <v>107</v>
+      </c>
+      <c r="P147" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A148" s="15">
+        <v>45107</v>
+      </c>
       <c r="B148" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C148" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="D148" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E148" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="F148" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="G148" s="2">
+        <v>8.07</v>
+      </c>
+      <c r="H148" s="2">
+        <v>8.07</v>
+      </c>
+      <c r="I148" s="2">
+        <v>8.31</v>
+      </c>
+      <c r="J148" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="K148" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N148" t="s">
+        <v>27</v>
+      </c>
+      <c r="O148" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A149" s="15">
+        <v>45107</v>
+      </c>
       <c r="B149" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C149" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="D149" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E149" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F149" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="G149" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="H149" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="I149" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="J149" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="K149" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L149" t="s">
+        <v>114</v>
+      </c>
+      <c r="N149" t="s">
+        <v>27</v>
+      </c>
+      <c r="O149" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A150" s="15">
+        <v>45107</v>
+      </c>
       <c r="B150" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C150" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="D150" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E150" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="F150" s="2">
+        <v>29.52</v>
+      </c>
+      <c r="G150" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H150" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I150" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J150" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="K150" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L150" t="s">
+        <v>115</v>
+      </c>
+      <c r="N150" t="s">
+        <v>27</v>
+      </c>
+      <c r="O150" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A151" s="15">
+        <v>45107</v>
+      </c>
       <c r="B151" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C151" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="D151" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="E151" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F151" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="G151" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="H151" s="2">
+        <v>8.09</v>
+      </c>
+      <c r="I151" s="2">
+        <v>9.67</v>
+      </c>
+      <c r="J151" s="2">
+        <v>9.09</v>
+      </c>
+      <c r="K151" s="18">
+        <v>14</v>
+      </c>
+      <c r="L151" t="s">
+        <v>116</v>
+      </c>
+      <c r="N151" t="s">
+        <v>27</v>
+      </c>
+      <c r="O151" t="s">
+        <v>107</v>
+      </c>
+      <c r="P151" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A152" s="15">
+        <v>45107</v>
+      </c>
       <c r="B152" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C152" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="D152" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E152" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="F152" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="G152" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="H152" s="2">
+        <v>8</v>
+      </c>
+      <c r="I152" s="2">
+        <v>7.66</v>
+      </c>
+      <c r="J152" s="2">
+        <v>7.65</v>
+      </c>
+      <c r="K152" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N152" t="s">
+        <v>27</v>
+      </c>
+      <c r="O152" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A153" s="15">
+        <v>45107</v>
+      </c>
       <c r="B153" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C153" s="2">
+        <v>14</v>
+      </c>
+      <c r="D153" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="E153" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="F153" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="G153" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="H153" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="I153" s="2">
+        <v>8.41</v>
+      </c>
+      <c r="J153" s="2">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="K153" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N153" t="s">
+        <v>27</v>
+      </c>
+      <c r="O153" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A154" s="15">
+        <v>45107</v>
+      </c>
       <c r="B154" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C154" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="D154" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="E154" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="F154" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="G154" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="H154" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I154" s="2">
+        <v>8.51</v>
+      </c>
+      <c r="J154" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="K154" s="18">
+        <v>14</v>
+      </c>
+      <c r="N154" t="s">
+        <v>27</v>
+      </c>
+      <c r="O154" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A155" s="15">
+        <v>45107</v>
+      </c>
       <c r="B155" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C155" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="D155" s="2">
+        <v>14</v>
+      </c>
+      <c r="E155" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="F155" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="G155" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="H155" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="I155" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="J155" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="K155" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="N155" t="s">
+        <v>27</v>
+      </c>
+      <c r="O155" t="s">
+        <v>107</v>
+      </c>
+      <c r="P155" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A156" s="15">
+        <v>45110</v>
+      </c>
       <c r="B156" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="D156" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="F156" s="2">
+        <v>29.39</v>
+      </c>
+      <c r="H156" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="J156" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="K156" s="18"/>
+      <c r="L156" s="14">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="M156" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N156" t="s">
+        <v>27</v>
+      </c>
+      <c r="O156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A157" s="15">
+        <v>45110</v>
+      </c>
       <c r="B157" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C157" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="D157" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E157" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="F157" s="2">
+        <v>29.59</v>
+      </c>
+      <c r="G157" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="H157" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="I157" s="2">
+        <v>7.63</v>
+      </c>
+      <c r="J157" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="K157" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N157" t="s">
+        <v>27</v>
+      </c>
+      <c r="O157" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A158" s="15">
+        <v>45110</v>
+      </c>
       <c r="B158" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C158" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="D158" s="2">
+        <v>14</v>
+      </c>
+      <c r="E158" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="F158" s="2">
+        <v>29.59</v>
+      </c>
+      <c r="G158" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="H158" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="I158" s="2">
+        <v>6.52</v>
+      </c>
+      <c r="J158" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="K158" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N158" t="s">
+        <v>27</v>
+      </c>
+      <c r="O158" t="s">
+        <v>99</v>
+      </c>
+      <c r="P158" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A159" s="15">
+        <v>45110</v>
+      </c>
       <c r="B159" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C159" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="D159" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="E159" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="F159" s="2">
+        <v>29.59</v>
+      </c>
+      <c r="G159" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="H159" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="I159" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="J159" s="2">
+        <v>7.53</v>
+      </c>
+      <c r="K159" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="N159" t="s">
+        <v>27</v>
+      </c>
+      <c r="O159" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A160" s="15">
+        <v>45110</v>
+      </c>
       <c r="B160" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C160" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="D160" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E160" s="2">
+        <v>29.59</v>
+      </c>
+      <c r="F160" s="2">
+        <v>29.59</v>
+      </c>
+      <c r="G160" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H160" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="I160" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="J160" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="K160" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N160" t="s">
+        <v>27</v>
+      </c>
+      <c r="O160" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A161" s="15">
+        <v>45110</v>
+      </c>
       <c r="B161" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C161" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="D161" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="E161" s="2">
+        <v>29.55</v>
+      </c>
+      <c r="F161" s="2">
+        <v>29.56</v>
+      </c>
+      <c r="G161" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="H161" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="I161" s="2">
+        <v>7.08</v>
+      </c>
+      <c r="J161" s="2">
+        <v>6.58</v>
+      </c>
+      <c r="K161" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N161" t="s">
+        <v>27</v>
+      </c>
+      <c r="O161" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A162" s="15">
+        <v>45110</v>
+      </c>
       <c r="B162" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C162" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="D162" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E162" s="2">
+        <v>29.58</v>
+      </c>
+      <c r="F162" s="2">
+        <v>29.55</v>
+      </c>
+      <c r="G162" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="H162" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I162" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J162" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K162" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N162" t="s">
+        <v>27</v>
+      </c>
+      <c r="O162" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A163" s="15">
+        <v>45110</v>
+      </c>
       <c r="B163" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C163" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="D163" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E163">
+        <v>29.58</v>
+      </c>
+      <c r="F163" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="G163" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="H163" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="I163" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="J163" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="K163" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N163" t="s">
+        <v>27</v>
+      </c>
+      <c r="O163" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A164" s="15">
+        <v>45110</v>
+      </c>
       <c r="B164" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C164" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="D164" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E164" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="F164" s="2">
+        <v>29.54</v>
+      </c>
+      <c r="G164" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="H164" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="I164" s="2">
+        <v>6.88</v>
+      </c>
+      <c r="J164" s="2">
+        <v>6.88</v>
+      </c>
+      <c r="K164" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N164" t="s">
+        <v>27</v>
+      </c>
+      <c r="O164" t="s">
+        <v>99</v>
+      </c>
+      <c r="P164" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A165" s="15">
+        <v>45112</v>
+      </c>
       <c r="B165" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="D165" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="F165" s="2">
+        <v>29.44</v>
+      </c>
+      <c r="H165" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="J165" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="K165" s="18"/>
+      <c r="L165" s="14">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="M165" s="14">
+        <v>0.40625</v>
+      </c>
+      <c r="N165" t="s">
+        <v>27</v>
+      </c>
+      <c r="O165" t="s">
+        <v>105</v>
+      </c>
+      <c r="P165" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A166" s="15">
+        <v>45112</v>
+      </c>
       <c r="B166" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C166" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="D166" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E166" s="2">
+        <v>29.69</v>
+      </c>
+      <c r="F166" s="2">
+        <v>29.72</v>
+      </c>
+      <c r="G166" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H166" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="I166" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="J166" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="K166" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N166" t="s">
+        <v>27</v>
+      </c>
+      <c r="O166" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A167" s="15">
+        <v>45112</v>
+      </c>
       <c r="B167" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C167" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D167" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E167" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="F167" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G167" s="2">
+        <v>7.81</v>
+      </c>
+      <c r="H167" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="I167" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="J167" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="K167" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N167" t="s">
+        <v>27</v>
+      </c>
+      <c r="O167" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A168" s="15">
+        <v>45112</v>
+      </c>
       <c r="B168" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C168" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="D168" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="E168" s="2">
+        <v>29.69</v>
+      </c>
+      <c r="F168" s="2">
+        <v>29.69</v>
+      </c>
+      <c r="G168" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="H168" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="I168" s="2">
+        <v>6.83</v>
+      </c>
+      <c r="J168" s="2">
+        <v>6.62</v>
+      </c>
+      <c r="K168" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N168" t="s">
+        <v>27</v>
+      </c>
+      <c r="O168" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A169" s="15">
+        <v>45112</v>
+      </c>
       <c r="B169" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C169" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D169" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E169" s="2">
+        <v>29.66</v>
+      </c>
+      <c r="F169" s="2">
+        <v>29.69</v>
+      </c>
+      <c r="G169" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H169" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="I169" s="2">
+        <v>7.14</v>
+      </c>
+      <c r="J169" s="2">
+        <v>6.76</v>
+      </c>
+      <c r="K169" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N169" t="s">
+        <v>27</v>
+      </c>
+      <c r="O169" t="s">
+        <v>105</v>
+      </c>
+      <c r="P169" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A170" s="15">
+        <v>45112</v>
+      </c>
       <c r="B170" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C170" s="2">
+        <v>14</v>
+      </c>
+      <c r="D170" s="2">
+        <v>14</v>
+      </c>
+      <c r="E170" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="F170" s="2">
+        <v>29.71</v>
+      </c>
+      <c r="G170" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="H170" s="2">
+        <v>7.68</v>
+      </c>
+      <c r="I170" s="2">
+        <v>5.68</v>
+      </c>
+      <c r="J170" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="K170" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N170" t="s">
+        <v>27</v>
+      </c>
+      <c r="O170" t="s">
+        <v>105</v>
+      </c>
+      <c r="P170" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A171" s="15">
+        <v>45112</v>
+      </c>
       <c r="B171" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C171" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D171" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="E171" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="F171" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G171" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="H171" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="I171" s="2">
+        <v>7.61</v>
+      </c>
+      <c r="J171" s="2">
+        <v>7.51</v>
+      </c>
+      <c r="K171" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N171" t="s">
+        <v>27</v>
+      </c>
+      <c r="O171" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A172" s="15">
+        <v>45112</v>
+      </c>
       <c r="B172" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C172" s="2">
+        <v>13</v>
+      </c>
+      <c r="D172" s="2">
+        <v>13</v>
+      </c>
+      <c r="E172" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="F172" s="2">
+        <v>29.67</v>
+      </c>
+      <c r="G172" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="H172" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="I172" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="J172" s="2">
+        <v>7</v>
+      </c>
+      <c r="K172" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N172" t="s">
+        <v>27</v>
+      </c>
+      <c r="O172" t="s">
+        <v>105</v>
+      </c>
+      <c r="P172" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A173" s="15">
+        <v>45112</v>
+      </c>
       <c r="B173" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C173" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D173" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="E173" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="F173" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G173" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="H173" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="I173" s="2">
+        <v>7</v>
+      </c>
+      <c r="J173" s="2">
+        <v>7</v>
+      </c>
+      <c r="K173" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N173" t="s">
+        <v>27</v>
+      </c>
+      <c r="O173" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B174" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="K174" s="18"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B175" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="K175" s="18"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B176" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="K176" s="18"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B177" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="K177" s="18"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B178" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="K178" s="18"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B179" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="K179" s="18"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B180" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="K180" s="18"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B181" s="2">
         <v>7</v>
+      </c>
+      <c r="K181" s="18"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B182" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/Daily_TankSpotChecks_2023.xlsx
+++ b/data/Daily_TankSpotChecks_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2023\Eelgrass_Mesocosm\Data_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2023\Eelgrass_Mesocosm\Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B488015-511C-4BC4-9D2D-AA53BFFA1F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B875A2-A8AD-4002-B280-5EEE2074B06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="108">
   <si>
     <t>T (C)</t>
   </si>
@@ -100,9 +100,6 @@
     <t>pH (NBS)</t>
   </si>
   <si>
-    <t>Flow Rate (L/min)</t>
-  </si>
-  <si>
     <t>DO (mg/L)</t>
   </si>
   <si>
@@ -112,40 +109,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>13 -&gt; 12</t>
-  </si>
-  <si>
-    <t>14 -&gt; 12</t>
-  </si>
-  <si>
-    <t>24 -&gt; 12</t>
-  </si>
-  <si>
-    <t>15 -&gt; 12</t>
-  </si>
-  <si>
-    <t>12 -&gt; 12</t>
-  </si>
-  <si>
-    <t>18 -&gt; 12</t>
-  </si>
-  <si>
     <t xml:space="preserve">fouling near sensors </t>
-  </si>
-  <si>
-    <t>12-&gt;12</t>
-  </si>
-  <si>
-    <t>10-&gt;12</t>
-  </si>
-  <si>
-    <t>NA-&gt;12</t>
-  </si>
-  <si>
-    <t>18-&gt;12</t>
-  </si>
-  <si>
-    <t>15-&gt;12</t>
   </si>
   <si>
     <t>inlet protocol?</t>
@@ -157,43 +121,13 @@
     <t>tank was clogged - got fixed today</t>
   </si>
   <si>
-    <t>11 -&gt; 12</t>
-  </si>
-  <si>
-    <t>11 -&gt; 13</t>
-  </si>
-  <si>
-    <t>12 -&gt; 13</t>
-  </si>
-  <si>
-    <t>15 -&gt; 13</t>
-  </si>
-  <si>
     <t>KP, KB, TM</t>
-  </si>
-  <si>
-    <t>20 -&gt; 14</t>
-  </si>
-  <si>
-    <t>40 -&gt; 14</t>
-  </si>
-  <si>
-    <t>26 -&gt; 14</t>
-  </si>
-  <si>
-    <t>24 -&gt; 14</t>
-  </si>
-  <si>
-    <t>36 -&gt; 14</t>
   </si>
   <si>
     <t>Water was stopped in all tanks 6/8/2023 4:30-6pm</t>
   </si>
   <si>
     <t>Left flow higher to accommodate (~14L/min)</t>
-  </si>
-  <si>
-    <t>8 -&gt; 12</t>
   </si>
   <si>
     <t>very low flow to start</t>
@@ -206,15 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tank 2 had a high temperature probably because of the low flow rate </t>
-  </si>
-  <si>
-    <t>6 -&gt; 12</t>
-  </si>
-  <si>
-    <t>30 -&gt; 12</t>
-  </si>
-  <si>
-    <t>72 -&gt; 12</t>
   </si>
   <si>
     <t>8:51AM</t>
@@ -230,9 +155,6 @@
   </si>
   <si>
     <t>DO was inconsistent</t>
-  </si>
-  <si>
-    <t>20 -&gt; 12</t>
   </si>
   <si>
     <t>KP</t>
@@ -262,9 +184,6 @@
     <t>calibrated twice because the sensor was being funky</t>
   </si>
   <si>
-    <t>9 -&gt; 12</t>
-  </si>
-  <si>
     <t>KP, KB</t>
   </si>
   <si>
@@ -277,15 +196,6 @@
     <t>comparatively high DO in inlet sample</t>
   </si>
   <si>
-    <t>2 -&gt; 14</t>
-  </si>
-  <si>
-    <t>4 -&gt; 14</t>
-  </si>
-  <si>
-    <t>6 -&gt; 14</t>
-  </si>
-  <si>
     <t xml:space="preserve">low DO </t>
   </si>
   <si>
@@ -293,9 +203,6 @@
   </si>
   <si>
     <t>Monday holiday, no tank maintenance, raining for 2 days</t>
-  </si>
-  <si>
-    <t>10 -&gt; 12</t>
   </si>
   <si>
     <t>Large change in DO from surface to deep, changed the DO cap today</t>
@@ -313,9 +220,6 @@
     <t>Generally DO strange, hard to calibrate</t>
   </si>
   <si>
-    <t>1 -&gt; 13</t>
-  </si>
-  <si>
     <t>clean inlet!</t>
   </si>
   <si>
@@ -331,12 +235,6 @@
     <t>Low DO, mixed it up after taking samples</t>
   </si>
   <si>
-    <t>4 -&gt; 12</t>
-  </si>
-  <si>
-    <t>4 -&gt; 13</t>
-  </si>
-  <si>
     <t>unbury oysters, stirred up to increase DO</t>
   </si>
   <si>
@@ -346,22 +244,7 @@
     <t>KB, FR</t>
   </si>
   <si>
-    <t>1 -&gt; 12</t>
-  </si>
-  <si>
     <t>KP, FR</t>
-  </si>
-  <si>
-    <t>12 -&gt; 14</t>
-  </si>
-  <si>
-    <t>11 -&gt; 14</t>
-  </si>
-  <si>
-    <t>10 -&gt; 14</t>
-  </si>
-  <si>
-    <t>9 -&gt; 14</t>
   </si>
   <si>
     <t>barnacle nudibranch spotted; murky</t>
@@ -379,25 +262,10 @@
     <t>weekend</t>
   </si>
   <si>
-    <t>1 -&gt; 14</t>
-  </si>
-  <si>
-    <t>10 - &gt; 14</t>
-  </si>
-  <si>
-    <t>8 -&gt; 14</t>
-  </si>
-  <si>
-    <t>7 -&gt; 14</t>
-  </si>
-  <si>
     <t>low flow</t>
   </si>
   <si>
     <t>murky, gross inlet, looked at water under microscope</t>
-  </si>
-  <si>
-    <t>3 -&gt; 14</t>
   </si>
   <si>
     <t>flow rates were hard today</t>
@@ -410,6 +278,78 @@
   </si>
   <si>
     <t>oysters buried</t>
+  </si>
+  <si>
+    <t>low DO in all 8 tanks, also low in inlet</t>
+  </si>
+  <si>
+    <t>mixed up all of the tanks</t>
+  </si>
+  <si>
+    <t>weird lumpy masses on side of tank, eggs?</t>
+  </si>
+  <si>
+    <t>Changed DO solution b/c of a bubble on top</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>NOT CALIBRATED, propably not holding last calibration</t>
+  </si>
+  <si>
+    <t>YSI not reliable, wasn't working this morning everything looks okay except DO be skeptical about that</t>
+  </si>
+  <si>
+    <t>Buttons on YSI not working, changed batteries, reset sensor, yay!</t>
+  </si>
+  <si>
+    <t>Dead oyster in this tank, eaten? Starfish or urchin?</t>
+  </si>
+  <si>
+    <t>buttons are still not working, measured pH and DO to determine if values are OK; pH was at 4, 7.03, and 9.98; DO was at 92.5%</t>
+  </si>
+  <si>
+    <t>pH waste bottle is full</t>
+  </si>
+  <si>
+    <t>EXO2 sensor from eelgrass tank still needs to be redeployed</t>
+  </si>
+  <si>
+    <t>Csense (tank 3) removed at 9:37 AM and reattached</t>
+  </si>
+  <si>
+    <t>9:43 AM Csense; 9:45 AM EXO2</t>
+  </si>
+  <si>
+    <t>YSI stopped working here, did not take measurements</t>
+  </si>
+  <si>
+    <t>only flow rates</t>
+  </si>
+  <si>
+    <t>Starting to record time taken with YSI data</t>
+  </si>
+  <si>
+    <t>stir up !!!</t>
+  </si>
+  <si>
+    <t>tank 4 diatom mass is very intrusive, seems to either be decomposing or affecting productivity</t>
+  </si>
+  <si>
+    <t>tank 5 inlet CLEANED</t>
+  </si>
+  <si>
+    <t>low DO's all aorund; pH 4 soltuion running low</t>
+  </si>
+  <si>
+    <t>Old Flow Rate (L/min)</t>
+  </si>
+  <si>
+    <t>New Flow Rate (L/min)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -493,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,20 +473,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2330,11 +2278,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:Q272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P173" sqref="P173"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2347,57 +2295,61 @@
     <col min="8" max="8" width="9.54296875" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" customWidth="1"/>
     <col min="10" max="10" width="8.54296875" customWidth="1"/>
-    <col min="11" max="11" width="17.7265625" customWidth="1"/>
-    <col min="12" max="12" width="17.26953125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" customWidth="1"/>
-    <col min="16" max="16" width="32" customWidth="1"/>
+    <col min="11" max="11" width="24.7265625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="17.7265625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" customWidth="1"/>
+    <col min="17" max="17" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="7" t="s">
@@ -2424,14 +2376,15 @@
       <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="9"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>45082</v>
       </c>
@@ -2454,24 +2407,25 @@
       <c r="J3" s="2">
         <v>9.85</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="13">
+      <c r="K3" s="25"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="13">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M3" s="14">
+      <c r="N3" s="14">
         <v>0.60763888888888895</v>
       </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
       <c r="O3" t="s">
         <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>45082</v>
       </c>
@@ -2502,19 +2456,22 @@
       <c r="J4" s="2">
         <v>12.2</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
+      <c r="K4" s="25">
+        <v>12</v>
+      </c>
+      <c r="L4" s="22">
+        <v>12</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
       <c r="O4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>45082</v>
       </c>
@@ -2545,19 +2502,22 @@
       <c r="J5" s="2">
         <v>12.8</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
+      <c r="K5" s="25">
+        <v>10</v>
+      </c>
+      <c r="L5" s="22">
+        <v>12</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
       <c r="O5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>45082</v>
       </c>
@@ -2588,22 +2548,25 @@
       <c r="J6" s="2">
         <v>11.4</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
+      <c r="K6" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="22">
+        <v>12</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
       <c r="O6" t="s">
         <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>45082</v>
       </c>
@@ -2634,22 +2597,25 @@
       <c r="J7" s="2">
         <v>12.95</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
+      <c r="K7" s="25">
+        <v>18</v>
+      </c>
+      <c r="L7" s="22">
+        <v>18</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
       <c r="O7" t="s">
         <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>45082</v>
       </c>
@@ -2680,19 +2646,22 @@
       <c r="J8" s="2">
         <v>11.65</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
+      <c r="K8" s="25">
+        <v>12</v>
+      </c>
+      <c r="L8" s="22">
+        <v>12</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
       <c r="O8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>45082</v>
       </c>
@@ -2723,19 +2692,22 @@
       <c r="J9" s="2">
         <v>11.1</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
+      <c r="K9" s="25">
+        <v>18</v>
+      </c>
+      <c r="L9" s="22">
+        <v>12</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
       <c r="O9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>45082</v>
       </c>
@@ -2766,19 +2738,22 @@
       <c r="J10" s="2">
         <v>11.81</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
+      <c r="K10" s="25">
+        <v>15</v>
+      </c>
+      <c r="L10" s="22">
+        <v>12</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
       <c r="O10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>45082</v>
       </c>
@@ -2809,19 +2784,22 @@
       <c r="J11" s="2">
         <v>11.29</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" t="s">
-        <v>27</v>
-      </c>
+      <c r="K11" s="25">
+        <v>15</v>
+      </c>
+      <c r="L11" s="22">
+        <v>12</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
       <c r="O11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>45084</v>
       </c>
@@ -2844,24 +2822,25 @@
       <c r="J12" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="11">
+      <c r="K12" s="25"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="11">
         <v>0.3979166666666667</v>
       </c>
-      <c r="M12" s="12">
+      <c r="N12" s="12">
         <v>0.43124999999999997</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" t="s">
         <v>27</v>
       </c>
-      <c r="O12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>45084</v>
       </c>
@@ -2892,19 +2871,22 @@
       <c r="J13" s="2">
         <v>8.25</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
+      <c r="K13" s="25">
+        <v>13</v>
+      </c>
+      <c r="L13" s="22">
+        <v>12</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
       <c r="O13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>45084</v>
       </c>
@@ -2935,18 +2917,21 @@
       <c r="J14" s="2">
         <v>8.5</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
+      <c r="K14" s="25">
+        <v>14</v>
+      </c>
+      <c r="L14" s="22">
+        <v>12</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="O14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>45084</v>
       </c>
@@ -2977,18 +2962,21 @@
       <c r="J15" s="2">
         <v>9.83</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
+      <c r="K15" s="25">
+        <v>24</v>
+      </c>
+      <c r="L15" s="22">
+        <v>12</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="O15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>45084</v>
       </c>
@@ -3019,18 +3007,21 @@
       <c r="J16" s="2">
         <v>10.23</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
+      <c r="K16" s="25">
+        <v>24</v>
+      </c>
+      <c r="L16" s="22">
+        <v>12</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="O16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>45084</v>
       </c>
@@ -3061,18 +3052,21 @@
       <c r="J17" s="2">
         <v>8.98</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="25">
+        <v>15</v>
+      </c>
+      <c r="L17" s="22">
+        <v>12</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="N17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>45084</v>
       </c>
@@ -3103,18 +3097,21 @@
       <c r="J18" s="2">
         <v>8.48</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
+      <c r="K18" s="25">
+        <v>12</v>
+      </c>
+      <c r="L18" s="22">
+        <v>12</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="O18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>45084</v>
       </c>
@@ -3145,18 +3142,21 @@
       <c r="J19" s="2">
         <v>8.81</v>
       </c>
-      <c r="K19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
+      <c r="K19" s="25">
+        <v>18</v>
+      </c>
+      <c r="L19" s="22">
+        <v>12</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="O19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>45084</v>
       </c>
@@ -3187,18 +3187,21 @@
       <c r="J20" s="2">
         <v>7.17</v>
       </c>
-      <c r="K20" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="N20" t="s">
-        <v>27</v>
-      </c>
+      <c r="K20" s="25">
+        <v>14</v>
+      </c>
+      <c r="L20" s="22">
+        <v>12</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="O20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>45085</v>
       </c>
@@ -3221,21 +3224,22 @@
       <c r="J21" s="2">
         <v>8.16</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="13">
+      <c r="K21" s="25"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="13">
         <v>0.35069444444444442</v>
       </c>
-      <c r="M21" s="14">
+      <c r="N21" s="14">
         <v>0.38472222222222219</v>
       </c>
-      <c r="N21" t="s">
-        <v>27</v>
-      </c>
       <c r="O21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>45085</v>
       </c>
@@ -3266,18 +3270,21 @@
       <c r="J22" s="2">
         <v>7.13</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="25">
         <v>13</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="N22" t="s">
-        <v>27</v>
-      </c>
+      <c r="L22" s="22">
+        <v>13</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="O22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>45085</v>
       </c>
@@ -3308,18 +3315,21 @@
       <c r="J23" s="2">
         <v>7.25</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="N23" t="s">
-        <v>27</v>
-      </c>
+      <c r="K23" s="25">
+        <v>11</v>
+      </c>
+      <c r="L23" s="22">
+        <v>12</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="O23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>45085</v>
       </c>
@@ -3350,18 +3360,21 @@
       <c r="J24" s="2">
         <v>7.44</v>
       </c>
-      <c r="K24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="N24" t="s">
-        <v>27</v>
-      </c>
+      <c r="K24" s="25">
+        <v>11</v>
+      </c>
+      <c r="L24" s="22">
+        <v>13</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="O24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>45085</v>
       </c>
@@ -3392,18 +3405,21 @@
       <c r="J25" s="2">
         <v>7.82</v>
       </c>
-      <c r="K25" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="N25" t="s">
-        <v>27</v>
-      </c>
+      <c r="K25" s="25">
+        <v>12</v>
+      </c>
+      <c r="L25" s="22">
+        <v>13</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="O25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>45085</v>
       </c>
@@ -3434,18 +3450,21 @@
       <c r="J26" s="2">
         <v>7.64</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="25">
         <v>13</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="N26" t="s">
-        <v>27</v>
-      </c>
+      <c r="L26" s="22">
+        <v>13</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="O26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>45085</v>
       </c>
@@ -3476,18 +3495,21 @@
       <c r="J27" s="2">
         <v>8.0399999999999991</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="25">
         <v>13</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="N27" t="s">
-        <v>27</v>
-      </c>
+      <c r="L27" s="22">
+        <v>13</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="O27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>45085</v>
       </c>
@@ -3518,18 +3540,21 @@
       <c r="J28" s="2">
         <v>7.9</v>
       </c>
-      <c r="K28" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="N28" t="s">
-        <v>27</v>
-      </c>
+      <c r="K28" s="25">
+        <v>15</v>
+      </c>
+      <c r="L28" s="22">
+        <v>13</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="O28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>45085</v>
       </c>
@@ -3560,18 +3585,21 @@
       <c r="J29" s="2">
         <v>7.86</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="25">
         <v>13</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="N29" t="s">
-        <v>27</v>
-      </c>
+      <c r="L29" s="22">
+        <v>13</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="O29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>45086</v>
       </c>
@@ -3594,24 +3622,25 @@
       <c r="J30" s="2">
         <v>8.14</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="13">
+      <c r="K30" s="25"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="13">
         <v>0.3666666666666667</v>
       </c>
-      <c r="M30" s="14">
+      <c r="N30" s="14">
         <v>0.40763888888888888</v>
       </c>
-      <c r="N30" t="s">
-        <v>27</v>
-      </c>
       <c r="O30" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>45086</v>
       </c>
@@ -3642,20 +3671,23 @@
       <c r="J31" s="2">
         <v>6.94</v>
       </c>
-      <c r="K31" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" t="s">
-        <v>27</v>
+      <c r="K31" s="25">
+        <v>20</v>
+      </c>
+      <c r="L31" s="22">
+        <v>14</v>
       </c>
       <c r="O31" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="P31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>45086</v>
       </c>
@@ -3686,17 +3718,20 @@
       <c r="J32" s="2">
         <v>6.9</v>
       </c>
-      <c r="K32" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="N32" t="s">
-        <v>27</v>
+      <c r="K32" s="25">
+        <v>40</v>
+      </c>
+      <c r="L32" s="22">
+        <v>14</v>
       </c>
       <c r="O32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>45086</v>
       </c>
@@ -3727,17 +3762,20 @@
       <c r="J33" s="2">
         <v>7.5</v>
       </c>
-      <c r="K33" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N33" t="s">
-        <v>27</v>
+      <c r="K33" s="25">
+        <v>26</v>
+      </c>
+      <c r="L33" s="22">
+        <v>14</v>
       </c>
       <c r="O33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>45086</v>
       </c>
@@ -3768,17 +3806,20 @@
       <c r="J34" s="2">
         <v>7.16</v>
       </c>
-      <c r="K34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N34" t="s">
-        <v>27</v>
+      <c r="K34" s="25">
+        <v>24</v>
+      </c>
+      <c r="L34" s="22">
+        <v>14</v>
       </c>
       <c r="O34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>45086</v>
       </c>
@@ -3809,17 +3850,20 @@
       <c r="J35" s="2">
         <v>6.2</v>
       </c>
-      <c r="K35" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N35" t="s">
-        <v>27</v>
+      <c r="K35" s="25">
+        <v>24</v>
+      </c>
+      <c r="L35" s="22">
+        <v>14</v>
       </c>
       <c r="O35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>45086</v>
       </c>
@@ -3850,17 +3894,20 @@
       <c r="J36" s="2">
         <v>6.94</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="25">
+        <v>24</v>
+      </c>
+      <c r="L36" s="22">
         <v>14</v>
       </c>
-      <c r="N36" t="s">
-        <v>27</v>
-      </c>
       <c r="O36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>45086</v>
       </c>
@@ -3891,17 +3938,20 @@
       <c r="J37" s="2">
         <v>7.85</v>
       </c>
-      <c r="K37" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N37" t="s">
-        <v>27</v>
+      <c r="K37" s="25">
+        <v>36</v>
+      </c>
+      <c r="L37" s="22">
+        <v>14</v>
       </c>
       <c r="O37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>45086</v>
       </c>
@@ -3932,17 +3982,20 @@
       <c r="J38" s="2">
         <v>6.8</v>
       </c>
-      <c r="K38" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N38" t="s">
-        <v>27</v>
+      <c r="K38" s="25">
+        <v>24</v>
+      </c>
+      <c r="L38" s="22">
+        <v>14</v>
       </c>
       <c r="O38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>45089</v>
       </c>
@@ -3965,24 +4018,25 @@
       <c r="J39" s="2">
         <v>8.57</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="12">
+      <c r="K39" s="25"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="12">
         <v>0.35833333333333334</v>
       </c>
-      <c r="M39" s="12">
+      <c r="N39" s="12">
         <v>0.3923611111111111</v>
       </c>
-      <c r="N39" t="s">
-        <v>27</v>
-      </c>
       <c r="O39" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>45089</v>
       </c>
@@ -4013,20 +4067,23 @@
       <c r="J40" s="2">
         <v>7.63</v>
       </c>
-      <c r="K40" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N40" t="s">
-        <v>27</v>
+      <c r="K40" s="25">
+        <v>24</v>
+      </c>
+      <c r="L40" s="22">
+        <v>12</v>
       </c>
       <c r="O40" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>45089</v>
       </c>
@@ -4057,20 +4114,23 @@
       <c r="J41" s="2">
         <v>7.13</v>
       </c>
-      <c r="K41" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" t="s">
-        <v>27</v>
+      <c r="K41" s="25">
+        <v>8</v>
+      </c>
+      <c r="L41" s="22">
+        <v>12</v>
+      </c>
+      <c r="M41" t="s">
+        <v>34</v>
       </c>
       <c r="O41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>45089</v>
       </c>
@@ -4101,17 +4161,20 @@
       <c r="J42" s="2">
         <v>7.9</v>
       </c>
-      <c r="K42" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" t="s">
-        <v>27</v>
+      <c r="K42" s="25">
+        <v>14</v>
+      </c>
+      <c r="L42" s="22">
+        <v>12</v>
       </c>
       <c r="O42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <v>45089</v>
       </c>
@@ -4142,17 +4205,20 @@
       <c r="J43" s="2">
         <v>8.16</v>
       </c>
-      <c r="K43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" t="s">
-        <v>27</v>
+      <c r="K43" s="25">
+        <v>14</v>
+      </c>
+      <c r="L43" s="22">
+        <v>12</v>
       </c>
       <c r="O43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <v>45089</v>
       </c>
@@ -4183,17 +4249,20 @@
       <c r="J44" s="2">
         <v>7.93</v>
       </c>
-      <c r="K44" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" t="s">
-        <v>27</v>
+      <c r="K44" s="25">
+        <v>14</v>
+      </c>
+      <c r="L44" s="22">
+        <v>12</v>
       </c>
       <c r="O44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <v>45089</v>
       </c>
@@ -4224,17 +4293,20 @@
       <c r="J45" s="2">
         <v>8.1300000000000008</v>
       </c>
-      <c r="K45" s="18">
-        <v>12</v>
-      </c>
-      <c r="N45" t="s">
-        <v>27</v>
+      <c r="K45" s="25">
+        <v>12</v>
+      </c>
+      <c r="L45" s="22">
+        <v>12</v>
       </c>
       <c r="O45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <v>45089</v>
       </c>
@@ -4265,17 +4337,20 @@
       <c r="J46" s="2">
         <v>8.15</v>
       </c>
-      <c r="K46" s="18">
-        <v>12</v>
-      </c>
-      <c r="N46" t="s">
-        <v>27</v>
+      <c r="K46" s="25">
+        <v>12</v>
+      </c>
+      <c r="L46" s="22">
+        <v>12</v>
       </c>
       <c r="O46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <v>45089</v>
       </c>
@@ -4306,17 +4381,20 @@
       <c r="J47" s="2">
         <v>7.44</v>
       </c>
-      <c r="K47" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" t="s">
-        <v>27</v>
+      <c r="K47" s="25">
+        <v>15</v>
+      </c>
+      <c r="L47" s="22">
+        <v>12</v>
       </c>
       <c r="O47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <v>45090</v>
       </c>
@@ -4335,24 +4413,25 @@
       <c r="J48" s="2">
         <v>7.8</v>
       </c>
-      <c r="K48" s="18"/>
-      <c r="L48" t="s">
-        <v>63</v>
-      </c>
+      <c r="K48" s="25"/>
+      <c r="L48" s="22"/>
       <c r="M48" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N48" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="O48" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <v>45090</v>
       </c>
@@ -4383,20 +4462,23 @@
       <c r="J49" s="2">
         <v>7.2</v>
       </c>
-      <c r="K49" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N49" t="s">
-        <v>27</v>
+      <c r="K49" s="25">
+        <v>6</v>
+      </c>
+      <c r="L49" s="22">
+        <v>12</v>
       </c>
       <c r="O49" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <v>45090</v>
       </c>
@@ -4427,20 +4509,23 @@
       <c r="J50" s="2">
         <v>7.22</v>
       </c>
-      <c r="K50" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N50" t="s">
-        <v>27</v>
+      <c r="K50" s="25">
+        <v>30</v>
+      </c>
+      <c r="L50" s="22">
+        <v>12</v>
       </c>
       <c r="O50" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <v>45090</v>
       </c>
@@ -4471,17 +4556,20 @@
       <c r="J51" s="2">
         <v>7.51</v>
       </c>
-      <c r="K51" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N51" t="s">
-        <v>27</v>
+      <c r="K51" s="25">
+        <v>30</v>
+      </c>
+      <c r="L51" s="22">
+        <v>12</v>
       </c>
       <c r="O51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <v>45090</v>
       </c>
@@ -4512,17 +4600,20 @@
       <c r="J52" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="K52" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N52" t="s">
-        <v>27</v>
+      <c r="K52" s="25">
+        <v>24</v>
+      </c>
+      <c r="L52" s="22">
+        <v>12</v>
       </c>
       <c r="O52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <v>45090</v>
       </c>
@@ -4553,17 +4644,20 @@
       <c r="J53" s="2">
         <v>8.14</v>
       </c>
-      <c r="K53" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N53" t="s">
-        <v>27</v>
+      <c r="K53" s="25">
+        <v>24</v>
+      </c>
+      <c r="L53" s="22">
+        <v>12</v>
       </c>
       <c r="O53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <v>45090</v>
       </c>
@@ -4594,17 +4688,20 @@
       <c r="J54" s="2">
         <v>7.97</v>
       </c>
-      <c r="K54" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N54" t="s">
-        <v>27</v>
+      <c r="K54" s="25">
+        <v>24</v>
+      </c>
+      <c r="L54" s="22">
+        <v>12</v>
       </c>
       <c r="O54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <v>45090</v>
       </c>
@@ -4635,20 +4732,23 @@
       <c r="J55" s="2">
         <v>8.41</v>
       </c>
-      <c r="K55" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N55" t="s">
-        <v>27</v>
+      <c r="K55" s="25">
+        <v>72</v>
+      </c>
+      <c r="L55" s="22">
+        <v>12</v>
       </c>
       <c r="O55" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <v>45090</v>
       </c>
@@ -4679,20 +4779,23 @@
       <c r="J56" s="2">
         <v>7.14</v>
       </c>
-      <c r="K56" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N56" t="s">
-        <v>27</v>
+      <c r="K56" s="25">
+        <v>6</v>
+      </c>
+      <c r="L56" s="22">
+        <v>12</v>
       </c>
       <c r="O56" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <v>45091</v>
       </c>
@@ -4711,21 +4814,22 @@
       <c r="J57" s="2">
         <v>7.72</v>
       </c>
-      <c r="K57" s="18"/>
-      <c r="L57" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="K57" s="25"/>
+      <c r="L57" s="22"/>
       <c r="M57" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N57" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="O57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <v>45091</v>
       </c>
@@ -4756,20 +4860,23 @@
       <c r="J58" s="2">
         <v>7.84</v>
       </c>
-      <c r="K58" s="18" t="s">
+      <c r="K58" s="25">
+        <v>11</v>
+      </c>
+      <c r="L58" s="22">
+        <v>12</v>
+      </c>
+      <c r="O58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P58" t="s">
         <v>43</v>
       </c>
-      <c r="N58" t="s">
-        <v>27</v>
-      </c>
-      <c r="O58" t="s">
-        <v>69</v>
-      </c>
-      <c r="P58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <v>45091</v>
       </c>
@@ -4800,17 +4907,20 @@
       <c r="J59" s="2">
         <v>8.02</v>
       </c>
-      <c r="K59" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N59" t="s">
-        <v>27</v>
+      <c r="K59" s="25">
+        <v>13</v>
+      </c>
+      <c r="L59" s="22">
+        <v>12</v>
       </c>
       <c r="O59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <v>45091</v>
       </c>
@@ -4841,17 +4951,20 @@
       <c r="J60" s="2">
         <v>8.1</v>
       </c>
-      <c r="K60" s="18">
-        <v>12</v>
-      </c>
-      <c r="N60" t="s">
-        <v>27</v>
+      <c r="K60" s="25">
+        <v>12</v>
+      </c>
+      <c r="L60" s="22">
+        <v>12</v>
       </c>
       <c r="O60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <v>45091</v>
       </c>
@@ -4882,20 +4995,23 @@
       <c r="J61" s="2">
         <v>8.85</v>
       </c>
-      <c r="K61" s="18">
-        <v>12</v>
-      </c>
-      <c r="N61" t="s">
-        <v>27</v>
+      <c r="K61" s="25">
+        <v>12</v>
+      </c>
+      <c r="L61" s="22">
+        <v>12</v>
       </c>
       <c r="O61" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="P61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <v>45091</v>
       </c>
@@ -4926,17 +5042,20 @@
       <c r="J62" s="2">
         <v>7.85</v>
       </c>
-      <c r="K62" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N62" t="s">
-        <v>27</v>
+      <c r="K62" s="25">
+        <v>24</v>
+      </c>
+      <c r="L62" s="22">
+        <v>12</v>
       </c>
       <c r="O62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <v>45091</v>
       </c>
@@ -4967,17 +5086,20 @@
       <c r="J63" s="2">
         <v>8.3699999999999992</v>
       </c>
-      <c r="K63" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N63" t="s">
-        <v>27</v>
+      <c r="K63" s="25">
+        <v>15</v>
+      </c>
+      <c r="L63" s="22">
+        <v>12</v>
       </c>
       <c r="O63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <v>45091</v>
       </c>
@@ -5008,17 +5130,20 @@
       <c r="J64" s="2">
         <v>8.51</v>
       </c>
-      <c r="K64" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N64" t="s">
-        <v>27</v>
+      <c r="K64" s="25">
+        <v>18</v>
+      </c>
+      <c r="L64" s="22">
+        <v>12</v>
       </c>
       <c r="O64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <v>45091</v>
       </c>
@@ -5049,17 +5174,20 @@
       <c r="J65" s="2">
         <v>7.71</v>
       </c>
-      <c r="K65" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="N65" t="s">
-        <v>27</v>
+      <c r="K65" s="25">
+        <v>20</v>
+      </c>
+      <c r="L65" s="22">
+        <v>12</v>
       </c>
       <c r="O65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <v>45092</v>
       </c>
@@ -5082,24 +5210,25 @@
       <c r="J66" s="2">
         <v>8.58</v>
       </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="14">
+      <c r="K66" s="25"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="14">
         <v>0.375</v>
       </c>
-      <c r="M66" s="14">
+      <c r="N66" s="14">
         <v>0.40277777777777773</v>
       </c>
-      <c r="N66" t="s">
-        <v>27</v>
-      </c>
       <c r="O66" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="P66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <v>45092</v>
       </c>
@@ -5130,17 +5259,20 @@
       <c r="J67" s="2">
         <v>8</v>
       </c>
-      <c r="K67" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N67" t="s">
-        <v>27</v>
+      <c r="K67" s="25">
+        <v>12</v>
+      </c>
+      <c r="L67" s="22">
+        <v>12</v>
       </c>
       <c r="O67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <v>45092</v>
       </c>
@@ -5171,17 +5303,20 @@
       <c r="J68" s="2">
         <v>7.88</v>
       </c>
-      <c r="K68" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N68" t="s">
-        <v>27</v>
+      <c r="K68" s="25">
+        <v>18</v>
+      </c>
+      <c r="L68" s="22">
+        <v>12</v>
       </c>
       <c r="O68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <v>45092</v>
       </c>
@@ -5212,17 +5347,20 @@
       <c r="J69" s="2">
         <v>8.33</v>
       </c>
-      <c r="K69" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N69" t="s">
-        <v>27</v>
+      <c r="K69" s="25">
+        <v>12</v>
+      </c>
+      <c r="L69" s="22">
+        <v>12</v>
       </c>
       <c r="O69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <v>45092</v>
       </c>
@@ -5253,20 +5391,23 @@
       <c r="J70" s="2">
         <v>8.92</v>
       </c>
-      <c r="K70" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N70" t="s">
-        <v>27</v>
+      <c r="K70" s="25">
+        <v>18</v>
+      </c>
+      <c r="L70" s="22">
+        <v>12</v>
       </c>
       <c r="O70" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="P70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <v>45092</v>
       </c>
@@ -5297,20 +5438,23 @@
       <c r="J71" s="2">
         <v>8.39</v>
       </c>
-      <c r="K71" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N71" t="s">
-        <v>27</v>
+      <c r="K71" s="25">
+        <v>11</v>
+      </c>
+      <c r="L71" s="22">
+        <v>12</v>
       </c>
       <c r="O71" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="P71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <v>45092</v>
       </c>
@@ -5341,17 +5485,20 @@
       <c r="J72" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="K72" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N72" t="s">
-        <v>27</v>
+      <c r="K72" s="25">
+        <v>18</v>
+      </c>
+      <c r="L72" s="22">
+        <v>12</v>
       </c>
       <c r="O72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <v>45092</v>
       </c>
@@ -5382,17 +5529,20 @@
       <c r="J73" s="2">
         <v>8.69</v>
       </c>
-      <c r="K73" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N73" t="s">
-        <v>27</v>
+      <c r="K73" s="25">
+        <v>12</v>
+      </c>
+      <c r="L73" s="22">
+        <v>12</v>
       </c>
       <c r="O73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <v>45092</v>
       </c>
@@ -5423,17 +5573,20 @@
       <c r="J74" s="2">
         <v>8.23</v>
       </c>
-      <c r="K74" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N74" t="s">
-        <v>27</v>
+      <c r="K74" s="25">
+        <v>13</v>
+      </c>
+      <c r="L74" s="22">
+        <v>12</v>
       </c>
       <c r="O74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <v>45093</v>
       </c>
@@ -5452,24 +5605,25 @@
       <c r="J75" s="2">
         <v>9.4499999999999993</v>
       </c>
-      <c r="K75" s="18"/>
-      <c r="L75" s="14">
+      <c r="K75" s="25"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="14">
         <v>0.36319444444444443</v>
       </c>
-      <c r="M75" s="14">
+      <c r="N75" s="14">
         <v>0.39097222222222222</v>
       </c>
-      <c r="N75" t="s">
-        <v>27</v>
-      </c>
       <c r="O75" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <v>45093</v>
       </c>
@@ -5500,20 +5654,23 @@
       <c r="J76" s="2">
         <v>7.35</v>
       </c>
-      <c r="K76" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N76" t="s">
-        <v>27</v>
+      <c r="K76" s="25">
+        <v>11</v>
+      </c>
+      <c r="L76" s="22">
+        <v>12</v>
       </c>
       <c r="O76" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <v>45093</v>
       </c>
@@ -5544,17 +5701,20 @@
       <c r="J77" s="2">
         <v>8.1</v>
       </c>
-      <c r="K77" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N77" t="s">
-        <v>27</v>
+      <c r="K77" s="25">
+        <v>11</v>
+      </c>
+      <c r="L77" s="22">
+        <v>12</v>
       </c>
       <c r="O77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
         <v>45093</v>
       </c>
@@ -5585,17 +5745,20 @@
       <c r="J78" s="2">
         <v>7.9</v>
       </c>
-      <c r="K78" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N78" t="s">
-        <v>27</v>
+      <c r="K78" s="25">
+        <v>9</v>
+      </c>
+      <c r="L78" s="22">
+        <v>12</v>
       </c>
       <c r="O78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
         <v>45093</v>
       </c>
@@ -5626,17 +5789,20 @@
       <c r="J79" s="2">
         <v>9.2899999999999991</v>
       </c>
-      <c r="K79" s="18">
-        <v>12</v>
-      </c>
-      <c r="N79" t="s">
-        <v>27</v>
+      <c r="K79" s="25">
+        <v>12</v>
+      </c>
+      <c r="L79" s="22">
+        <v>12</v>
       </c>
       <c r="O79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
         <v>45093</v>
       </c>
@@ -5667,20 +5833,23 @@
       <c r="J80" s="2">
         <v>8.4499999999999993</v>
       </c>
-      <c r="K80" s="18">
-        <v>12</v>
-      </c>
-      <c r="N80" t="s">
-        <v>27</v>
+      <c r="K80" s="25">
+        <v>12</v>
+      </c>
+      <c r="L80" s="22">
+        <v>12</v>
       </c>
       <c r="O80" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
         <v>45093</v>
       </c>
@@ -5711,17 +5880,20 @@
       <c r="J81" s="2">
         <v>7.96</v>
       </c>
-      <c r="K81" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N81" t="s">
-        <v>27</v>
+      <c r="K81" s="25">
+        <v>9</v>
+      </c>
+      <c r="L81" s="22">
+        <v>12</v>
       </c>
       <c r="O81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <v>45093</v>
       </c>
@@ -5752,17 +5924,20 @@
       <c r="J82" s="2">
         <v>8.07</v>
       </c>
-      <c r="K82" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N82" t="s">
-        <v>27</v>
+      <c r="K82" s="25">
+        <v>11</v>
+      </c>
+      <c r="L82" s="22">
+        <v>12</v>
       </c>
       <c r="O82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
         <v>45093</v>
       </c>
@@ -5793,17 +5968,20 @@
       <c r="J83" s="2">
         <v>7.99</v>
       </c>
-      <c r="K83" s="18">
-        <v>12</v>
-      </c>
-      <c r="N83" t="s">
-        <v>27</v>
+      <c r="K83" s="25">
+        <v>12</v>
+      </c>
+      <c r="L83" s="22">
+        <v>12</v>
       </c>
       <c r="O83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
         <v>45097</v>
       </c>
@@ -5826,24 +6004,25 @@
       <c r="J84" s="2">
         <v>8.4</v>
       </c>
-      <c r="K84" s="18"/>
-      <c r="L84" s="14">
+      <c r="K84" s="25"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="14">
         <v>0.37152777777777773</v>
       </c>
-      <c r="M84" s="14">
+      <c r="N84" s="14">
         <v>0.89583333333333337</v>
       </c>
-      <c r="N84" t="s">
-        <v>27</v>
-      </c>
       <c r="O84" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
         <v>45097</v>
       </c>
@@ -5874,20 +6053,23 @@
       <c r="J85" s="2">
         <v>6.33</v>
       </c>
-      <c r="K85" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N85" t="s">
-        <v>27</v>
+      <c r="K85" s="25">
+        <v>2</v>
+      </c>
+      <c r="L85" s="22">
+        <v>14</v>
       </c>
       <c r="O85" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <v>45097</v>
       </c>
@@ -5918,20 +6100,23 @@
       <c r="J86" s="2">
         <v>6.33</v>
       </c>
-      <c r="K86" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N86" t="s">
-        <v>27</v>
+      <c r="K86" s="25">
+        <v>2</v>
+      </c>
+      <c r="L86" s="22">
+        <v>14</v>
       </c>
       <c r="O86" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
         <v>45097</v>
       </c>
@@ -5962,20 +6147,23 @@
       <c r="J87" s="2">
         <v>6.22</v>
       </c>
-      <c r="K87" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="N87" t="s">
-        <v>27</v>
+      <c r="K87" s="25">
+        <v>4</v>
+      </c>
+      <c r="L87" s="22">
+        <v>14</v>
       </c>
       <c r="O87" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P87" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="15">
         <v>45097</v>
       </c>
@@ -6006,17 +6194,20 @@
       <c r="J88" s="2">
         <v>7.18</v>
       </c>
-      <c r="K88" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="N88" t="s">
-        <v>27</v>
+      <c r="K88" s="25">
+        <v>4</v>
+      </c>
+      <c r="L88" s="22">
+        <v>14</v>
       </c>
       <c r="O88" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
         <v>45097</v>
       </c>
@@ -6047,20 +6238,23 @@
       <c r="J89" s="2">
         <v>6.42</v>
       </c>
-      <c r="K89" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N89" t="s">
-        <v>27</v>
+      <c r="K89" s="25">
+        <v>6</v>
+      </c>
+      <c r="L89" s="22">
+        <v>14</v>
       </c>
       <c r="O89" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P89" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
         <v>45097</v>
       </c>
@@ -6091,17 +6285,20 @@
       <c r="J90" s="2">
         <v>7.75</v>
       </c>
-      <c r="K90" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N90" t="s">
-        <v>27</v>
+      <c r="K90" s="25">
+        <v>6</v>
+      </c>
+      <c r="L90" s="22">
+        <v>14</v>
       </c>
       <c r="O90" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
         <v>45097</v>
       </c>
@@ -6132,17 +6329,20 @@
       <c r="J91" s="2">
         <v>8.31</v>
       </c>
-      <c r="K91" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N91" t="s">
-        <v>27</v>
+      <c r="K91" s="25">
+        <v>2</v>
+      </c>
+      <c r="L91" s="22">
+        <v>14</v>
       </c>
       <c r="O91" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <v>45097</v>
       </c>
@@ -6173,20 +6373,23 @@
       <c r="J92" s="2">
         <v>5.68</v>
       </c>
-      <c r="K92" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N92" t="s">
-        <v>27</v>
+      <c r="K92" s="25">
+        <v>6</v>
+      </c>
+      <c r="L92" s="22">
+        <v>14</v>
       </c>
       <c r="O92" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P92" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="15">
         <v>45098</v>
       </c>
@@ -6207,21 +6410,22 @@
       <c r="J93" s="2">
         <v>9.5</v>
       </c>
-      <c r="K93" s="18"/>
-      <c r="L93" s="14">
+      <c r="K93" s="25"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="14">
         <v>0.39305555555555555</v>
       </c>
-      <c r="M93" s="14">
+      <c r="N93" s="14">
         <v>0.41875000000000001</v>
       </c>
-      <c r="N93" t="s">
-        <v>27</v>
-      </c>
       <c r="O93" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="15">
         <v>45098</v>
       </c>
@@ -6252,17 +6456,20 @@
       <c r="J94" s="2">
         <v>8.2100000000000009</v>
       </c>
-      <c r="K94" s="18">
-        <v>12</v>
-      </c>
-      <c r="N94" t="s">
-        <v>27</v>
+      <c r="K94" s="25">
+        <v>12</v>
+      </c>
+      <c r="L94" s="22">
+        <v>12</v>
       </c>
       <c r="O94" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="15">
         <v>45098</v>
       </c>
@@ -6293,17 +6500,20 @@
       <c r="J95" s="2">
         <v>7.68</v>
       </c>
-      <c r="K95" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N95" t="s">
-        <v>27</v>
+      <c r="K95" s="25">
+        <v>11</v>
+      </c>
+      <c r="L95" s="22">
+        <v>12</v>
       </c>
       <c r="O95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <v>45098</v>
       </c>
@@ -6334,17 +6544,20 @@
       <c r="J96" s="2">
         <v>8.93</v>
       </c>
-      <c r="K96" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="N96" t="s">
-        <v>27</v>
+      <c r="K96" s="25">
+        <v>20</v>
+      </c>
+      <c r="L96" s="22">
+        <v>12</v>
       </c>
       <c r="O96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="15">
         <v>45098</v>
       </c>
@@ -6375,17 +6588,20 @@
       <c r="J97" s="2">
         <v>8.81</v>
       </c>
-      <c r="K97" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N97" t="s">
-        <v>27</v>
+      <c r="K97" s="25">
+        <v>10</v>
+      </c>
+      <c r="L97" s="22">
+        <v>12</v>
       </c>
       <c r="O97" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="15">
         <v>45098</v>
       </c>
@@ -6416,17 +6632,20 @@
       <c r="J98" s="2">
         <v>7.75</v>
       </c>
-      <c r="K98" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N98" t="s">
-        <v>27</v>
+      <c r="K98" s="25">
+        <v>11</v>
+      </c>
+      <c r="L98" s="22">
+        <v>12</v>
       </c>
       <c r="O98" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <v>45098</v>
       </c>
@@ -6457,20 +6676,23 @@
       <c r="J99" s="2">
         <v>7.87</v>
       </c>
-      <c r="K99" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N99" t="s">
-        <v>27</v>
+      <c r="K99" s="25">
+        <v>18</v>
+      </c>
+      <c r="L99" s="22">
+        <v>12</v>
       </c>
       <c r="O99" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P99" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="15">
         <v>45098</v>
       </c>
@@ -6501,17 +6723,20 @@
       <c r="J100" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="K100" s="18">
-        <v>12</v>
-      </c>
-      <c r="N100" t="s">
-        <v>27</v>
+      <c r="K100" s="25">
+        <v>12</v>
+      </c>
+      <c r="L100" s="22">
+        <v>12</v>
       </c>
       <c r="O100" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="15">
         <v>45098</v>
       </c>
@@ -6542,20 +6767,23 @@
       <c r="J101" s="2">
         <v>6.56</v>
       </c>
-      <c r="K101" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N101" t="s">
-        <v>27</v>
+      <c r="K101" s="25">
+        <v>24</v>
+      </c>
+      <c r="L101" s="22">
+        <v>12</v>
       </c>
       <c r="O101" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P101" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="15">
         <v>45100</v>
       </c>
@@ -6575,24 +6803,25 @@
       <c r="J102" s="2">
         <v>9.6199999999999992</v>
       </c>
-      <c r="K102" s="18"/>
-      <c r="L102" s="14">
+      <c r="K102" s="25"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="14">
         <v>0.36458333333333331</v>
       </c>
-      <c r="M102" s="14">
+      <c r="N102" s="14">
         <v>0.3888888888888889</v>
       </c>
-      <c r="N102" t="s">
-        <v>27</v>
-      </c>
       <c r="O102" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="P102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="15">
         <v>45100</v>
       </c>
@@ -6623,17 +6852,20 @@
       <c r="J103" s="2">
         <v>8.5299999999999994</v>
       </c>
-      <c r="K103" s="18">
-        <v>12</v>
-      </c>
-      <c r="N103" t="s">
-        <v>27</v>
+      <c r="K103" s="25">
+        <v>12</v>
+      </c>
+      <c r="L103" s="22">
+        <v>12</v>
       </c>
       <c r="O103" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="15">
         <v>45100</v>
       </c>
@@ -6664,17 +6896,20 @@
       <c r="J104" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K104" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N104" t="s">
-        <v>27</v>
+      <c r="K104" s="25">
+        <v>11</v>
+      </c>
+      <c r="L104" s="22">
+        <v>12</v>
       </c>
       <c r="O104" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <v>45100</v>
       </c>
@@ -6705,17 +6940,20 @@
       <c r="J105" s="2">
         <v>7.66</v>
       </c>
-      <c r="K105" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N105" t="s">
-        <v>27</v>
+      <c r="K105" s="25">
+        <v>11</v>
+      </c>
+      <c r="L105" s="22">
+        <v>12</v>
       </c>
       <c r="O105" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="15">
         <v>45100</v>
       </c>
@@ -6746,17 +6984,20 @@
       <c r="J106" s="2">
         <v>9.23</v>
       </c>
-      <c r="K106" s="18">
-        <v>12</v>
-      </c>
-      <c r="N106" t="s">
-        <v>27</v>
+      <c r="K106" s="25">
+        <v>12</v>
+      </c>
+      <c r="L106" s="22">
+        <v>12</v>
       </c>
       <c r="O106" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="15">
         <v>45100</v>
       </c>
@@ -6787,17 +7028,20 @@
       <c r="J107" s="2">
         <v>7.74</v>
       </c>
-      <c r="K107" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N107" t="s">
-        <v>27</v>
+      <c r="K107" s="25">
+        <v>11</v>
+      </c>
+      <c r="L107" s="22">
+        <v>12</v>
       </c>
       <c r="O107" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P107" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="15">
         <v>45100</v>
       </c>
@@ -6828,17 +7072,20 @@
       <c r="J108" s="2">
         <v>8.86</v>
       </c>
-      <c r="K108" s="18">
-        <v>12</v>
-      </c>
-      <c r="N108" t="s">
-        <v>27</v>
+      <c r="K108" s="25">
+        <v>12</v>
+      </c>
+      <c r="L108" s="22">
+        <v>12</v>
       </c>
       <c r="O108" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="15">
         <v>45100</v>
       </c>
@@ -6869,17 +7116,20 @@
       <c r="J109" s="2">
         <v>8.75</v>
       </c>
-      <c r="K109" s="18">
-        <v>12</v>
-      </c>
-      <c r="N109" t="s">
-        <v>27</v>
+      <c r="K109" s="25">
+        <v>12</v>
+      </c>
+      <c r="L109" s="22">
+        <v>12</v>
       </c>
       <c r="O109" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P109" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <v>45100</v>
       </c>
@@ -6910,20 +7160,23 @@
       <c r="J110" s="2">
         <v>6.6</v>
       </c>
-      <c r="K110" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N110" t="s">
-        <v>27</v>
+      <c r="K110" s="25">
+        <v>24</v>
+      </c>
+      <c r="L110" s="22">
+        <v>12</v>
       </c>
       <c r="O110" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="P110" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="15">
         <v>45103</v>
       </c>
@@ -6946,21 +7199,22 @@
         <v>7.14</v>
       </c>
       <c r="J111" s="2"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="14">
+      <c r="K111" s="25"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="14">
         <v>0.37152777777777773</v>
       </c>
-      <c r="M111" s="14">
+      <c r="N111" s="14">
         <v>0.38750000000000001</v>
       </c>
-      <c r="N111" t="s">
-        <v>27</v>
-      </c>
       <c r="O111" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="15">
         <v>45103</v>
       </c>
@@ -6991,17 +7245,20 @@
       <c r="J112" s="2">
         <v>7.01</v>
       </c>
-      <c r="K112" s="18">
-        <v>12</v>
-      </c>
-      <c r="N112" t="s">
-        <v>27</v>
+      <c r="K112" s="25">
+        <v>12</v>
+      </c>
+      <c r="L112" s="22">
+        <v>12</v>
       </c>
       <c r="O112" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <v>45103</v>
       </c>
@@ -7032,17 +7289,20 @@
       <c r="J113" s="2">
         <v>6.66</v>
       </c>
-      <c r="K113" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N113" t="s">
-        <v>27</v>
+      <c r="K113" s="25">
+        <v>11</v>
+      </c>
+      <c r="L113" s="22">
+        <v>12</v>
       </c>
       <c r="O113" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P113" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="15">
         <v>45103</v>
       </c>
@@ -7073,20 +7333,23 @@
       <c r="J114" s="2">
         <v>6.53</v>
       </c>
-      <c r="K114" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="N114" t="s">
-        <v>27</v>
+      <c r="K114" s="25">
+        <v>1</v>
+      </c>
+      <c r="L114" s="22">
+        <v>13</v>
       </c>
       <c r="O114" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="P114" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="15">
         <v>45103</v>
       </c>
@@ -7117,20 +7380,23 @@
       <c r="J115" s="2">
         <v>7.23</v>
       </c>
-      <c r="K115" s="18">
+      <c r="K115" s="25">
         <v>11</v>
       </c>
-      <c r="N115" t="s">
-        <v>27</v>
+      <c r="L115" s="22">
+        <v>11</v>
       </c>
       <c r="O115" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="P115" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="15">
         <v>45103</v>
       </c>
@@ -7161,20 +7427,23 @@
       <c r="J116" s="2">
         <v>6.93</v>
       </c>
-      <c r="K116" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N116" t="s">
-        <v>27</v>
+      <c r="K116" s="25">
+        <v>11</v>
+      </c>
+      <c r="L116" s="22">
+        <v>12</v>
       </c>
       <c r="O116" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="P116" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="15">
         <v>45103</v>
       </c>
@@ -7205,17 +7474,20 @@
       <c r="J117" s="2">
         <v>7.48</v>
       </c>
-      <c r="K117" s="18">
-        <v>12</v>
-      </c>
-      <c r="N117" t="s">
-        <v>27</v>
+      <c r="K117" s="25">
+        <v>12</v>
+      </c>
+      <c r="L117" s="22">
+        <v>12</v>
       </c>
       <c r="O117" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <v>45103</v>
       </c>
@@ -7246,17 +7518,20 @@
       <c r="J118" s="2">
         <v>7.11</v>
       </c>
-      <c r="K118" s="18">
-        <v>12</v>
-      </c>
-      <c r="N118" t="s">
-        <v>27</v>
+      <c r="K118" s="25">
+        <v>12</v>
+      </c>
+      <c r="L118" s="22">
+        <v>12</v>
       </c>
       <c r="O118" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="15">
         <v>45103</v>
       </c>
@@ -7287,20 +7562,23 @@
       <c r="J119" s="2">
         <v>7.18</v>
       </c>
-      <c r="K119" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N119" t="s">
-        <v>27</v>
+      <c r="K119" s="25">
+        <v>24</v>
+      </c>
+      <c r="L119" s="22">
+        <v>12</v>
       </c>
       <c r="O119" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="P119" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <v>45104</v>
       </c>
@@ -7319,21 +7597,22 @@
       <c r="J120" s="2">
         <v>7.65</v>
       </c>
-      <c r="K120" s="18"/>
-      <c r="L120" s="14">
+      <c r="K120" s="25"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="14">
         <v>0.3611111111111111</v>
       </c>
-      <c r="M120" s="14">
+      <c r="N120" s="14">
         <v>0.3833333333333333</v>
       </c>
-      <c r="N120" t="s">
-        <v>27</v>
-      </c>
       <c r="O120" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P120" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="15">
         <v>45104</v>
       </c>
@@ -7364,17 +7643,20 @@
       <c r="J121" s="2">
         <v>6.92</v>
       </c>
-      <c r="K121" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N121" t="s">
-        <v>27</v>
+      <c r="K121" s="25">
+        <v>6</v>
+      </c>
+      <c r="L121" s="22">
+        <v>12</v>
       </c>
       <c r="O121" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="15">
         <v>45104</v>
       </c>
@@ -7405,17 +7687,20 @@
       <c r="J122" s="2">
         <v>6.15</v>
       </c>
-      <c r="K122" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="N122" t="s">
-        <v>27</v>
+      <c r="K122" s="25">
+        <v>8</v>
+      </c>
+      <c r="L122" s="22">
+        <v>12</v>
       </c>
       <c r="O122" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <v>45104</v>
       </c>
@@ -7446,17 +7731,20 @@
       <c r="J123" s="2">
         <v>6.67</v>
       </c>
-      <c r="K123" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="N123" t="s">
-        <v>27</v>
+      <c r="K123" s="25">
+        <v>8</v>
+      </c>
+      <c r="L123" s="22">
+        <v>12</v>
       </c>
       <c r="O123" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="15">
         <v>45104</v>
       </c>
@@ -7487,17 +7775,20 @@
       <c r="J124" s="2">
         <v>7.68</v>
       </c>
-      <c r="K124" s="18">
-        <v>12</v>
-      </c>
-      <c r="N124" t="s">
-        <v>27</v>
+      <c r="K124" s="25">
+        <v>12</v>
+      </c>
+      <c r="L124" s="22">
+        <v>12</v>
       </c>
       <c r="O124" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P124" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="15">
         <v>45104</v>
       </c>
@@ -7528,20 +7819,23 @@
       <c r="J125" s="2">
         <v>5.95</v>
       </c>
-      <c r="K125" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="N125" t="s">
-        <v>27</v>
+      <c r="K125" s="25">
+        <v>4</v>
+      </c>
+      <c r="L125" s="22">
+        <v>12</v>
       </c>
       <c r="O125" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="P125" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="15">
         <v>45104</v>
       </c>
@@ -7572,17 +7866,20 @@
       <c r="J126" s="2">
         <v>7.5</v>
       </c>
-      <c r="K126" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N126" t="s">
-        <v>27</v>
+      <c r="K126" s="25">
+        <v>9</v>
+      </c>
+      <c r="L126" s="22">
+        <v>12</v>
       </c>
       <c r="O126" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P126" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="15">
         <v>45104</v>
       </c>
@@ -7613,17 +7910,20 @@
       <c r="J127" s="2">
         <v>7.07</v>
       </c>
-      <c r="K127" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N127" t="s">
-        <v>27</v>
+      <c r="K127" s="25">
+        <v>10</v>
+      </c>
+      <c r="L127" s="22">
+        <v>12</v>
       </c>
       <c r="O127" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P127" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <v>45104</v>
       </c>
@@ -7654,20 +7954,23 @@
       <c r="J128" s="2">
         <v>5.95</v>
       </c>
-      <c r="K128" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N128" t="s">
-        <v>27</v>
+      <c r="K128" s="25">
+        <v>4</v>
+      </c>
+      <c r="L128" s="22">
+        <v>13</v>
       </c>
       <c r="O128" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="P128" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="15">
         <v>45105</v>
       </c>
@@ -7686,21 +7989,22 @@
       <c r="J129" s="2">
         <v>8.5399999999999991</v>
       </c>
-      <c r="K129" s="18"/>
-      <c r="L129" s="14">
+      <c r="K129" s="25"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="14">
         <v>0.3576388888888889</v>
       </c>
-      <c r="M129" s="14">
+      <c r="N129" s="14">
         <v>0.37291666666666662</v>
       </c>
-      <c r="N129" t="s">
-        <v>27</v>
-      </c>
       <c r="O129" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P129" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
         <v>45105</v>
       </c>
@@ -7731,17 +8035,20 @@
       <c r="J130" s="2">
         <v>7.41</v>
       </c>
-      <c r="K130" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N130" t="s">
-        <v>27</v>
+      <c r="K130" s="25">
+        <v>9</v>
+      </c>
+      <c r="L130" s="22">
+        <v>12</v>
       </c>
       <c r="O130" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P130" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
         <v>45105</v>
       </c>
@@ -7772,20 +8079,23 @@
       <c r="J131" s="2">
         <v>6.9</v>
       </c>
-      <c r="K131" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N131" t="s">
-        <v>27</v>
+      <c r="K131" s="25">
+        <v>6</v>
+      </c>
+      <c r="L131" s="22">
+        <v>12</v>
       </c>
       <c r="O131" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="P131" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
         <v>45105</v>
       </c>
@@ -7816,20 +8126,23 @@
       <c r="J132" s="2">
         <v>6.61</v>
       </c>
-      <c r="K132" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="N132" t="s">
-        <v>27</v>
+      <c r="K132" s="25">
+        <v>4</v>
+      </c>
+      <c r="L132" s="22">
+        <v>12</v>
       </c>
       <c r="O132" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="P132" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
         <v>45105</v>
       </c>
@@ -7860,17 +8173,20 @@
       <c r="J133" s="2">
         <v>7.96</v>
       </c>
-      <c r="K133" s="18">
-        <v>12</v>
-      </c>
-      <c r="N133" t="s">
-        <v>27</v>
+      <c r="K133" s="25">
+        <v>12</v>
+      </c>
+      <c r="L133" s="22">
+        <v>12</v>
       </c>
       <c r="O133" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P133" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
         <v>45105</v>
       </c>
@@ -7901,17 +8217,20 @@
       <c r="J134" s="2">
         <v>7.27</v>
       </c>
-      <c r="K134" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N134" t="s">
-        <v>27</v>
+      <c r="K134" s="25">
+        <v>11</v>
+      </c>
+      <c r="L134" s="22">
+        <v>12</v>
       </c>
       <c r="O134" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
         <v>45105</v>
       </c>
@@ -7942,17 +8261,20 @@
       <c r="J135" s="2">
         <v>8.5399999999999991</v>
       </c>
-      <c r="K135" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N135" t="s">
-        <v>27</v>
+      <c r="K135" s="25">
+        <v>11</v>
+      </c>
+      <c r="L135" s="22">
+        <v>12</v>
       </c>
       <c r="O135" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P135" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
         <v>45105</v>
       </c>
@@ -7983,17 +8305,20 @@
       <c r="J136" s="2">
         <v>7.73</v>
       </c>
-      <c r="K136" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N136" t="s">
-        <v>27</v>
+      <c r="K136" s="25">
+        <v>11</v>
+      </c>
+      <c r="L136" s="22">
+        <v>12</v>
       </c>
       <c r="O136" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P136" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
         <v>45105</v>
       </c>
@@ -8024,17 +8349,20 @@
       <c r="J137" s="2">
         <v>8.0500000000000007</v>
       </c>
-      <c r="K137" s="18">
-        <v>12</v>
-      </c>
-      <c r="N137" t="s">
-        <v>27</v>
+      <c r="K137" s="25">
+        <v>12</v>
+      </c>
+      <c r="L137" s="22">
+        <v>12</v>
       </c>
       <c r="O137" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P137" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
         <v>45106</v>
       </c>
@@ -8053,21 +8381,22 @@
       <c r="J138" s="2">
         <v>8.98</v>
       </c>
-      <c r="K138" s="18"/>
-      <c r="L138" s="14">
+      <c r="K138" s="25"/>
+      <c r="L138" s="22"/>
+      <c r="M138" s="14">
         <v>0.3659722222222222</v>
       </c>
-      <c r="M138" s="14">
+      <c r="N138" s="14">
         <v>0.3888888888888889</v>
       </c>
-      <c r="N138" t="s">
-        <v>27</v>
-      </c>
       <c r="O138" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P138" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="15">
         <v>45106</v>
       </c>
@@ -8098,17 +8427,20 @@
       <c r="J139" s="2">
         <v>7.65</v>
       </c>
-      <c r="K139" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="N139" t="s">
-        <v>27</v>
+      <c r="K139" s="25">
+        <v>1</v>
+      </c>
+      <c r="L139" s="22">
+        <v>12</v>
       </c>
       <c r="O139" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
         <v>45106</v>
       </c>
@@ -8139,17 +8471,20 @@
       <c r="J140" s="2">
         <v>8.02</v>
       </c>
-      <c r="K140" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="N140" t="s">
-        <v>27</v>
+      <c r="K140" s="25">
+        <v>4</v>
+      </c>
+      <c r="L140" s="22">
+        <v>12</v>
       </c>
       <c r="O140" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P140" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
         <v>45106</v>
       </c>
@@ -8180,17 +8515,20 @@
       <c r="J141" s="2">
         <v>7.77</v>
       </c>
-      <c r="K141" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="N141" t="s">
-        <v>27</v>
+      <c r="K141" s="25">
+        <v>4</v>
+      </c>
+      <c r="L141" s="22">
+        <v>12</v>
       </c>
       <c r="O141" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P141" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
         <v>45106</v>
       </c>
@@ -8221,17 +8559,20 @@
       <c r="J142" s="2">
         <v>9.36</v>
       </c>
-      <c r="K142" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N142" t="s">
-        <v>27</v>
+      <c r="K142" s="25">
+        <v>15</v>
+      </c>
+      <c r="L142" s="22">
+        <v>12</v>
       </c>
       <c r="O142" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P142" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
         <v>45106</v>
       </c>
@@ -8262,17 +8603,20 @@
       <c r="J143" s="2">
         <v>7.44</v>
       </c>
-      <c r="K143" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N143" t="s">
-        <v>27</v>
+      <c r="K143" s="25">
+        <v>6</v>
+      </c>
+      <c r="L143" s="22">
+        <v>12</v>
       </c>
       <c r="O143" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P143" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
         <v>45106</v>
       </c>
@@ -8303,17 +8647,20 @@
       <c r="J144" s="2">
         <v>8.7799999999999994</v>
       </c>
-      <c r="K144" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="N144" t="s">
-        <v>27</v>
+      <c r="K144" s="25">
+        <v>8</v>
+      </c>
+      <c r="L144" s="22">
+        <v>12</v>
       </c>
       <c r="O144" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P144" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <v>45106</v>
       </c>
@@ -8344,17 +8691,20 @@
       <c r="J145" s="2">
         <v>8.73</v>
       </c>
-      <c r="K145" s="18">
-        <v>12</v>
-      </c>
-      <c r="N145" t="s">
-        <v>27</v>
+      <c r="K145" s="25">
+        <v>12</v>
+      </c>
+      <c r="L145" s="22">
+        <v>12</v>
       </c>
       <c r="O145" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P145" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
         <v>45106</v>
       </c>
@@ -8385,17 +8735,20 @@
       <c r="J146" s="2">
         <v>7.99</v>
       </c>
-      <c r="K146" s="18">
-        <v>12</v>
-      </c>
-      <c r="N146" t="s">
-        <v>27</v>
+      <c r="K146" s="25">
+        <v>12</v>
+      </c>
+      <c r="L146" s="22">
+        <v>12</v>
       </c>
       <c r="O146" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <v>45107</v>
       </c>
@@ -8414,24 +8767,25 @@
       <c r="J147" s="2">
         <v>8.85</v>
       </c>
-      <c r="K147" s="18"/>
-      <c r="L147" s="14">
+      <c r="K147" s="25"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="14">
         <v>0.36944444444444446</v>
       </c>
-      <c r="M147" s="14">
+      <c r="N147" s="14">
         <v>0.41805555555555557</v>
       </c>
-      <c r="N147" t="s">
-        <v>27</v>
-      </c>
       <c r="O147" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="P147" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
         <v>45107</v>
       </c>
@@ -8462,17 +8816,20 @@
       <c r="J148" s="2">
         <v>8.24</v>
       </c>
-      <c r="K148" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="N148" t="s">
-        <v>27</v>
+      <c r="K148" s="25">
+        <v>12</v>
+      </c>
+      <c r="L148" s="22">
+        <v>14</v>
       </c>
       <c r="O148" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P148" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="15">
         <v>45107</v>
       </c>
@@ -8503,20 +8860,23 @@
       <c r="J149" s="2">
         <v>7.95</v>
       </c>
-      <c r="K149" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="L149" t="s">
-        <v>114</v>
-      </c>
-      <c r="N149" t="s">
-        <v>27</v>
+      <c r="K149" s="25">
+        <v>11</v>
+      </c>
+      <c r="L149" s="22">
+        <v>14</v>
+      </c>
+      <c r="M149" t="s">
+        <v>75</v>
       </c>
       <c r="O149" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P149" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="15">
         <v>45107</v>
       </c>
@@ -8547,20 +8907,23 @@
       <c r="J150" s="2">
         <v>8.08</v>
       </c>
-      <c r="K150" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="L150" t="s">
-        <v>115</v>
-      </c>
-      <c r="N150" t="s">
-        <v>27</v>
+      <c r="K150" s="25">
+        <v>11</v>
+      </c>
+      <c r="L150" s="22">
+        <v>14</v>
+      </c>
+      <c r="M150" t="s">
+        <v>76</v>
       </c>
       <c r="O150" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P150" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="15">
         <v>45107</v>
       </c>
@@ -8591,23 +8954,26 @@
       <c r="J151" s="2">
         <v>9.09</v>
       </c>
-      <c r="K151" s="18">
+      <c r="K151" s="25">
         <v>14</v>
       </c>
-      <c r="L151" t="s">
-        <v>116</v>
-      </c>
-      <c r="N151" t="s">
-        <v>27</v>
+      <c r="L151" s="22">
+        <v>14</v>
+      </c>
+      <c r="M151" t="s">
+        <v>77</v>
       </c>
       <c r="O151" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="P151" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="15">
         <v>45107</v>
       </c>
@@ -8638,17 +9004,20 @@
       <c r="J152" s="2">
         <v>7.65</v>
       </c>
-      <c r="K152" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="N152" t="s">
-        <v>27</v>
+      <c r="K152" s="25">
+        <v>11</v>
+      </c>
+      <c r="L152" s="22">
+        <v>14</v>
       </c>
       <c r="O152" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P152" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="15">
         <v>45107</v>
       </c>
@@ -8679,17 +9048,20 @@
       <c r="J153" s="2">
         <v>8.5399999999999991</v>
       </c>
-      <c r="K153" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="N153" t="s">
-        <v>27</v>
+      <c r="K153" s="25">
+        <v>10</v>
+      </c>
+      <c r="L153" s="22">
+        <v>14</v>
       </c>
       <c r="O153" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P153" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="15">
         <v>45107</v>
       </c>
@@ -8720,17 +9092,20 @@
       <c r="J154" s="2">
         <v>8.4499999999999993</v>
       </c>
-      <c r="K154" s="18">
+      <c r="K154" s="25">
         <v>14</v>
       </c>
-      <c r="N154" t="s">
-        <v>27</v>
+      <c r="L154" s="22">
+        <v>14</v>
       </c>
       <c r="O154" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="15">
         <v>45107</v>
       </c>
@@ -8761,20 +9136,23 @@
       <c r="J155" s="2">
         <v>7.21</v>
       </c>
-      <c r="K155" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="N155" t="s">
-        <v>27</v>
+      <c r="K155" s="25">
+        <v>9</v>
+      </c>
+      <c r="L155" s="22">
+        <v>14</v>
       </c>
       <c r="O155" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="P155" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="15">
         <v>45110</v>
       </c>
@@ -8793,21 +9171,22 @@
       <c r="J156" s="2">
         <v>7.89</v>
       </c>
-      <c r="K156" s="18"/>
-      <c r="L156" s="14">
+      <c r="K156" s="25"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="14">
         <v>0.36805555555555558</v>
       </c>
-      <c r="M156" s="14">
+      <c r="N156" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="N156" t="s">
-        <v>27</v>
-      </c>
       <c r="O156" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P156" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="15">
         <v>45110</v>
       </c>
@@ -8838,17 +9217,20 @@
       <c r="J157" s="2">
         <v>7.07</v>
       </c>
-      <c r="K157" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N157" t="s">
-        <v>27</v>
+      <c r="K157" s="25">
+        <v>2</v>
+      </c>
+      <c r="L157" s="22">
+        <v>14</v>
       </c>
       <c r="O157" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P157" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="15">
         <v>45110</v>
       </c>
@@ -8879,20 +9261,23 @@
       <c r="J158" s="2">
         <v>6.09</v>
       </c>
-      <c r="K158" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N158" t="s">
-        <v>27</v>
+      <c r="K158" s="25">
+        <v>1</v>
+      </c>
+      <c r="L158" s="22">
+        <v>14</v>
       </c>
       <c r="O158" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="P158" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="15">
         <v>45110</v>
       </c>
@@ -8923,17 +9308,20 @@
       <c r="J159" s="2">
         <v>7.53</v>
       </c>
-      <c r="K159" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="N159" t="s">
-        <v>27</v>
+      <c r="K159" s="25">
+        <v>4</v>
+      </c>
+      <c r="L159" s="22">
+        <v>14</v>
       </c>
       <c r="O159" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P159" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="15">
         <v>45110</v>
       </c>
@@ -8964,17 +9352,20 @@
       <c r="J160" s="2">
         <v>7.45</v>
       </c>
-      <c r="K160" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="N160" t="s">
-        <v>27</v>
+      <c r="K160" s="25">
+        <v>10</v>
+      </c>
+      <c r="L160" s="22">
+        <v>14</v>
       </c>
       <c r="O160" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P160" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="15">
         <v>45110</v>
       </c>
@@ -9005,17 +9396,20 @@
       <c r="J161" s="2">
         <v>6.58</v>
       </c>
-      <c r="K161" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N161" t="s">
-        <v>27</v>
+      <c r="K161" s="25">
+        <v>8</v>
+      </c>
+      <c r="L161" s="22">
+        <v>14</v>
       </c>
       <c r="O161" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P161" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="15">
         <v>45110</v>
       </c>
@@ -9046,17 +9440,20 @@
       <c r="J162" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K162" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="N162" t="s">
-        <v>27</v>
+      <c r="K162" s="25">
+        <v>10</v>
+      </c>
+      <c r="L162" s="22">
+        <v>14</v>
       </c>
       <c r="O162" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P162" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="15">
         <v>45110</v>
       </c>
@@ -9087,17 +9484,20 @@
       <c r="J163" s="2">
         <v>7.05</v>
       </c>
-      <c r="K163" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="N163" t="s">
-        <v>27</v>
+      <c r="K163" s="25">
+        <v>7</v>
+      </c>
+      <c r="L163" s="22">
+        <v>14</v>
       </c>
       <c r="O163" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P163" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="15">
         <v>45110</v>
       </c>
@@ -9128,20 +9528,23 @@
       <c r="J164" s="2">
         <v>6.88</v>
       </c>
-      <c r="K164" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="N164" t="s">
-        <v>27</v>
+      <c r="K164" s="25">
+        <v>10</v>
+      </c>
+      <c r="L164" s="22">
+        <v>14</v>
       </c>
       <c r="O164" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="P164" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="15">
         <v>45112</v>
       </c>
@@ -9160,24 +9563,25 @@
       <c r="J165" s="2">
         <v>7.56</v>
       </c>
-      <c r="K165" s="18"/>
-      <c r="L165" s="14">
+      <c r="K165" s="25"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="14">
         <v>0.3611111111111111</v>
       </c>
-      <c r="M165" s="14">
+      <c r="N165" s="14">
         <v>0.40625</v>
       </c>
-      <c r="N165" t="s">
-        <v>27</v>
-      </c>
       <c r="O165" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="P165" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" s="15">
         <v>45112</v>
       </c>
@@ -9208,17 +9612,20 @@
       <c r="J166" s="2">
         <v>7.25</v>
       </c>
-      <c r="K166" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N166" t="s">
-        <v>27</v>
+      <c r="K166" s="25">
+        <v>3</v>
+      </c>
+      <c r="L166" s="22">
+        <v>14</v>
       </c>
       <c r="O166" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P166" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" s="15">
         <v>45112</v>
       </c>
@@ -9249,17 +9656,20 @@
       <c r="J167" s="2">
         <v>6.28</v>
       </c>
-      <c r="K167" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="N167" t="s">
-        <v>27</v>
+      <c r="K167" s="25">
+        <v>8</v>
+      </c>
+      <c r="L167" s="22">
+        <v>14</v>
       </c>
       <c r="O167" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P167" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" s="15">
         <v>45112</v>
       </c>
@@ -9290,17 +9700,20 @@
       <c r="J168" s="2">
         <v>6.62</v>
       </c>
-      <c r="K168" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N168" t="s">
-        <v>27</v>
+      <c r="K168" s="25">
+        <v>2</v>
+      </c>
+      <c r="L168" s="22">
+        <v>14</v>
       </c>
       <c r="O168" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P168" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" s="15">
         <v>45112</v>
       </c>
@@ -9331,20 +9744,23 @@
       <c r="J169" s="2">
         <v>6.76</v>
       </c>
-      <c r="K169" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N169" t="s">
-        <v>27</v>
+      <c r="K169" s="25">
+        <v>2</v>
+      </c>
+      <c r="L169" s="22">
+        <v>14</v>
       </c>
       <c r="O169" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="P169" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" s="15">
         <v>45112</v>
       </c>
@@ -9375,20 +9791,23 @@
       <c r="J170" s="2">
         <v>5.35</v>
       </c>
-      <c r="K170" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N170" t="s">
-        <v>27</v>
+      <c r="K170" s="25">
+        <v>2</v>
+      </c>
+      <c r="L170" s="22">
+        <v>14</v>
       </c>
       <c r="O170" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="P170" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" s="15">
         <v>45112</v>
       </c>
@@ -9419,17 +9838,20 @@
       <c r="J171" s="2">
         <v>7.51</v>
       </c>
-      <c r="K171" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N171" t="s">
-        <v>27</v>
+      <c r="K171" s="25">
+        <v>11</v>
+      </c>
+      <c r="L171" s="22">
+        <v>13</v>
       </c>
       <c r="O171" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P171" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" s="15">
         <v>45112</v>
       </c>
@@ -9460,20 +9882,23 @@
       <c r="J172" s="2">
         <v>7</v>
       </c>
-      <c r="K172" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N172" t="s">
-        <v>27</v>
+      <c r="K172" s="25">
+        <v>6</v>
+      </c>
+      <c r="L172" s="22">
+        <v>14</v>
       </c>
       <c r="O172" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="P172" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" s="15">
         <v>45112</v>
       </c>
@@ -9504,66 +9929,3126 @@
       <c r="J173" s="2">
         <v>7</v>
       </c>
-      <c r="K173" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="N173" t="s">
-        <v>27</v>
+      <c r="K173" s="25">
+        <v>10</v>
+      </c>
+      <c r="L173" s="22">
+        <v>14</v>
       </c>
       <c r="O173" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="P173" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A174" s="15">
+        <v>45113</v>
+      </c>
       <c r="B174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K174" s="18"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D174" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="F174" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="H174" s="2">
+        <v>7.97</v>
+      </c>
+      <c r="J174" s="2">
+        <v>7.09</v>
+      </c>
+      <c r="K174" s="25"/>
+      <c r="L174" s="22"/>
+      <c r="M174" s="14">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="N174" s="14">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="O174" t="s">
+        <v>26</v>
+      </c>
+      <c r="P174" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A175" s="15">
+        <v>45113</v>
+      </c>
       <c r="B175" s="2">
         <v>1</v>
       </c>
-      <c r="K175" s="18"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C175" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D175" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E175" s="2">
+        <v>29.73</v>
+      </c>
+      <c r="F175" s="2">
+        <v>29.76</v>
+      </c>
+      <c r="G175" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="H175" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="I175" s="2">
+        <v>6.88</v>
+      </c>
+      <c r="J175" s="2">
+        <v>6.52</v>
+      </c>
+      <c r="K175" s="25">
+        <v>8</v>
+      </c>
+      <c r="L175" s="22">
+        <v>14</v>
+      </c>
+      <c r="O175" t="s">
+        <v>26</v>
+      </c>
+      <c r="P175" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A176" s="15">
+        <v>45113</v>
+      </c>
       <c r="B176" s="2">
         <v>2</v>
       </c>
-      <c r="K176" s="18"/>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C176" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D176" s="2">
+        <v>13</v>
+      </c>
+      <c r="E176" s="2">
+        <v>29.78</v>
+      </c>
+      <c r="F176" s="2">
+        <v>29.74</v>
+      </c>
+      <c r="G176" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="H176" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="I176" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J176" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="K176" s="25">
+        <v>6</v>
+      </c>
+      <c r="L176" s="22">
+        <v>14</v>
+      </c>
+      <c r="O176" t="s">
+        <v>26</v>
+      </c>
+      <c r="P176" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A177" s="15">
+        <v>45113</v>
+      </c>
       <c r="B177" s="2">
         <v>3</v>
       </c>
-      <c r="K177" s="18"/>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C177" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="D177" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="E177" s="2">
+        <v>29.77</v>
+      </c>
+      <c r="F177" s="2">
+        <v>29.76</v>
+      </c>
+      <c r="G177" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="H177" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="I177" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J177" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="K177" s="25">
+        <v>5</v>
+      </c>
+      <c r="L177" s="22">
+        <v>14</v>
+      </c>
+      <c r="O177" t="s">
+        <v>26</v>
+      </c>
+      <c r="P177" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A178" s="15">
+        <v>45113</v>
+      </c>
       <c r="B178" s="2">
         <v>4</v>
       </c>
-      <c r="K178" s="18"/>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C178" s="2">
+        <v>13</v>
+      </c>
+      <c r="D178" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="E178" s="2">
+        <v>29.71</v>
+      </c>
+      <c r="F178" s="2">
+        <v>29.72</v>
+      </c>
+      <c r="G178" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H178" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="I178" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="J178" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="K178" s="25">
+        <v>12</v>
+      </c>
+      <c r="L178" s="22">
+        <v>14</v>
+      </c>
+      <c r="O178" t="s">
+        <v>26</v>
+      </c>
+      <c r="P178" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A179" s="15">
+        <v>45113</v>
+      </c>
       <c r="B179" s="2">
         <v>5</v>
       </c>
-      <c r="K179" s="18"/>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C179" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D179" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E179" s="2">
+        <v>29.73</v>
+      </c>
+      <c r="F179" s="2">
+        <v>29.76</v>
+      </c>
+      <c r="G179" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="H179" s="2">
+        <v>7.76</v>
+      </c>
+      <c r="I179" s="2">
+        <v>6.02</v>
+      </c>
+      <c r="J179" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="K179" s="25">
+        <v>9</v>
+      </c>
+      <c r="L179" s="22">
+        <v>14</v>
+      </c>
+      <c r="O179" t="s">
+        <v>26</v>
+      </c>
+      <c r="P179" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A180" s="15">
+        <v>45113</v>
+      </c>
       <c r="B180" s="2">
         <v>6</v>
       </c>
-      <c r="K180" s="18"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C180" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D180" s="2">
+        <v>13</v>
+      </c>
+      <c r="E180" s="2">
+        <v>29.74</v>
+      </c>
+      <c r="F180" s="2">
+        <v>29.74</v>
+      </c>
+      <c r="G180" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="H180" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="I180" s="2">
+        <v>7.14</v>
+      </c>
+      <c r="J180" s="2">
+        <v>7.02</v>
+      </c>
+      <c r="K180" s="25">
+        <v>10</v>
+      </c>
+      <c r="L180" s="22">
+        <v>14</v>
+      </c>
+      <c r="O180" t="s">
+        <v>26</v>
+      </c>
+      <c r="P180" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A181" s="15">
+        <v>45113</v>
+      </c>
       <c r="B181" s="2">
         <v>7</v>
       </c>
-      <c r="K181" s="18"/>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C181" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="D181" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E181" s="2">
+        <v>29.75</v>
+      </c>
+      <c r="F181" s="2">
+        <v>29.73</v>
+      </c>
+      <c r="G181" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="H181" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="I181" s="2">
+        <v>6.72</v>
+      </c>
+      <c r="J181" s="2">
+        <v>6.54</v>
+      </c>
+      <c r="K181" s="25">
+        <v>12</v>
+      </c>
+      <c r="L181" s="22">
+        <v>14</v>
+      </c>
+      <c r="O181" t="s">
+        <v>26</v>
+      </c>
+      <c r="P181" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A182" s="15">
+        <v>45113</v>
+      </c>
       <c r="B182" s="2">
+        <v>8</v>
+      </c>
+      <c r="C182" s="2">
+        <v>13</v>
+      </c>
+      <c r="D182" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E182" s="2">
+        <v>29.73</v>
+      </c>
+      <c r="F182" s="2">
+        <v>29.74</v>
+      </c>
+      <c r="G182" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="H182" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="I182" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="J182" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="K182" s="25">
+        <v>12</v>
+      </c>
+      <c r="L182" s="22">
+        <v>14</v>
+      </c>
+      <c r="O182" t="s">
+        <v>26</v>
+      </c>
+      <c r="P182" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A183" s="15">
+        <v>45114</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="F183" s="2">
+        <v>29.55</v>
+      </c>
+      <c r="H183" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="J183" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="K183" s="25"/>
+      <c r="M183" s="14">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="N183" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O183" t="s">
+        <v>26</v>
+      </c>
+      <c r="P183" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A184" s="15">
+        <v>45114</v>
+      </c>
+      <c r="B184" s="2">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="D184" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="E184" s="2">
+        <v>29.67</v>
+      </c>
+      <c r="F184" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G184" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H184" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="I184" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="J184" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="K184" s="25">
+        <v>8</v>
+      </c>
+      <c r="L184" s="22">
+        <v>14</v>
+      </c>
+      <c r="O184" t="s">
+        <v>26</v>
+      </c>
+      <c r="P184" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A185" s="15">
+        <v>45114</v>
+      </c>
+      <c r="B185" s="2">
+        <v>2</v>
+      </c>
+      <c r="C185" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="D185" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="E185" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="F185" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G185" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="H185" s="2">
+        <v>7.79</v>
+      </c>
+      <c r="I185" s="2">
+        <v>6.81</v>
+      </c>
+      <c r="J185" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="K185" s="25">
+        <v>10</v>
+      </c>
+      <c r="L185" s="22">
+        <v>14</v>
+      </c>
+      <c r="O185" t="s">
+        <v>26</v>
+      </c>
+      <c r="P185" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A186" s="15">
+        <v>45114</v>
+      </c>
+      <c r="B186" s="2">
+        <v>3</v>
+      </c>
+      <c r="C186" s="2">
+        <v>13</v>
+      </c>
+      <c r="D186" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E186" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="F186" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G186" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="H186" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="I186" s="2">
+        <v>6.88</v>
+      </c>
+      <c r="J186" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="K186" s="25">
+        <v>4</v>
+      </c>
+      <c r="L186" s="22">
+        <v>14</v>
+      </c>
+      <c r="O186" t="s">
+        <v>26</v>
+      </c>
+      <c r="P186" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A187" s="15">
+        <v>45114</v>
+      </c>
+      <c r="B187" s="2">
+        <v>4</v>
+      </c>
+      <c r="C187" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="D187" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="E187" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="F187" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G187" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="H187" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="I187" s="2">
+        <v>6.97</v>
+      </c>
+      <c r="J187" s="2">
+        <v>6.93</v>
+      </c>
+      <c r="K187" s="25">
+        <v>8</v>
+      </c>
+      <c r="L187" s="22">
+        <v>14</v>
+      </c>
+      <c r="O187" t="s">
+        <v>26</v>
+      </c>
+      <c r="P187" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A188" s="15">
+        <v>45114</v>
+      </c>
+      <c r="B188" s="2">
+        <v>5</v>
+      </c>
+      <c r="C188" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D188" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E188" s="2">
+        <v>29.69</v>
+      </c>
+      <c r="F188" s="2">
+        <v>29.69</v>
+      </c>
+      <c r="G188" s="2">
+        <v>7.73</v>
+      </c>
+      <c r="H188" s="2">
+        <v>7.71</v>
+      </c>
+      <c r="I188" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="J188" s="2">
+        <v>5.37</v>
+      </c>
+      <c r="K188" s="25">
+        <v>3</v>
+      </c>
+      <c r="L188" s="22">
+        <v>14</v>
+      </c>
+      <c r="O188" t="s">
+        <v>26</v>
+      </c>
+      <c r="P188" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A189" s="15">
+        <v>45114</v>
+      </c>
+      <c r="B189" s="2">
+        <v>6</v>
+      </c>
+      <c r="C189" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D189" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="E189" s="2">
+        <v>29.67</v>
+      </c>
+      <c r="F189" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G189" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H189" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="I189" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="J189" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="K189" s="25">
+        <v>11</v>
+      </c>
+      <c r="L189" s="22">
+        <v>14</v>
+      </c>
+      <c r="O189" t="s">
+        <v>26</v>
+      </c>
+      <c r="P189" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A190" s="15">
+        <v>45114</v>
+      </c>
+      <c r="B190" s="2">
+        <v>7</v>
+      </c>
+      <c r="C190" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D190" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E190" s="2">
+        <v>29.67</v>
+      </c>
+      <c r="F190" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G190" s="2">
+        <v>7.79</v>
+      </c>
+      <c r="H190" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="I190" s="2">
+        <v>6.79</v>
+      </c>
+      <c r="J190" s="2">
+        <v>6.68</v>
+      </c>
+      <c r="K190" s="25">
+        <v>9</v>
+      </c>
+      <c r="L190" s="22">
+        <v>14</v>
+      </c>
+      <c r="O190" t="s">
+        <v>26</v>
+      </c>
+      <c r="P190" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A191" s="15">
+        <v>45114</v>
+      </c>
+      <c r="B191" s="2">
+        <v>8</v>
+      </c>
+      <c r="C191" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D191" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E191" s="2">
+        <v>29.67</v>
+      </c>
+      <c r="F191" s="2">
+        <v>29.68</v>
+      </c>
+      <c r="G191" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="H191" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="I191" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="J191" s="2">
+        <v>6.88</v>
+      </c>
+      <c r="K191" s="25">
+        <v>11</v>
+      </c>
+      <c r="L191" s="22">
+        <v>14</v>
+      </c>
+      <c r="O191" t="s">
+        <v>26</v>
+      </c>
+      <c r="P191" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A192" s="15">
+        <v>45117</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P192" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A193" s="15">
+        <v>45117</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1</v>
+      </c>
+      <c r="K193" s="25">
+        <v>4</v>
+      </c>
+      <c r="L193" s="22">
+        <v>14</v>
+      </c>
+      <c r="P193" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A194" s="15">
+        <v>45117</v>
+      </c>
+      <c r="B194" s="2">
+        <v>2</v>
+      </c>
+      <c r="K194" s="25">
+        <v>10</v>
+      </c>
+      <c r="L194" s="22">
+        <v>14</v>
+      </c>
+      <c r="P194" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A195" s="15">
+        <v>45117</v>
+      </c>
+      <c r="B195" s="2">
+        <v>3</v>
+      </c>
+      <c r="K195" s="25">
+        <v>6</v>
+      </c>
+      <c r="L195" s="22">
+        <v>14</v>
+      </c>
+      <c r="P195" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A196" s="15">
+        <v>45117</v>
+      </c>
+      <c r="B196" s="2">
+        <v>4</v>
+      </c>
+      <c r="K196" s="25">
+        <v>4</v>
+      </c>
+      <c r="L196" s="22">
+        <v>14</v>
+      </c>
+      <c r="P196" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A197" s="15">
+        <v>45117</v>
+      </c>
+      <c r="B197" s="2">
+        <v>5</v>
+      </c>
+      <c r="K197" s="25">
+        <v>9</v>
+      </c>
+      <c r="L197" s="22">
+        <v>14</v>
+      </c>
+      <c r="P197" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A198" s="15">
+        <v>45117</v>
+      </c>
+      <c r="B198" s="2">
+        <v>6</v>
+      </c>
+      <c r="K198" s="25">
+        <v>9</v>
+      </c>
+      <c r="L198" s="22">
+        <v>14</v>
+      </c>
+      <c r="P198" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A199" s="15">
+        <v>45117</v>
+      </c>
+      <c r="B199" s="2">
+        <v>7</v>
+      </c>
+      <c r="K199" s="25">
+        <v>10</v>
+      </c>
+      <c r="L199" s="22">
+        <v>14</v>
+      </c>
+      <c r="P199" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A200" s="15">
+        <v>45117</v>
+      </c>
+      <c r="B200" s="2">
+        <v>8</v>
+      </c>
+      <c r="K200" s="25">
+        <v>2</v>
+      </c>
+      <c r="L200" s="22">
+        <v>14</v>
+      </c>
+      <c r="P200" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A201" s="15">
+        <v>45118</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="F201" s="2">
+        <v>30.02</v>
+      </c>
+      <c r="H201" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="J201" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K201" s="25"/>
+      <c r="M201" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="N201" s="14">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="O201" t="s">
+        <v>88</v>
+      </c>
+      <c r="P201" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A202" s="15">
+        <v>45118</v>
+      </c>
+      <c r="B202" s="2">
+        <v>1</v>
+      </c>
+      <c r="C202" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="D202" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E202" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="F202" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="G202" s="2">
+        <v>8</v>
+      </c>
+      <c r="H202" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="I202" s="2">
+        <v>7.13</v>
+      </c>
+      <c r="J202" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="K202" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="L202" s="22">
+        <v>14</v>
+      </c>
+      <c r="O202" t="s">
+        <v>88</v>
+      </c>
+      <c r="P202" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A203" s="15">
+        <v>45118</v>
+      </c>
+      <c r="B203" s="2">
+        <v>2</v>
+      </c>
+      <c r="C203" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D203" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E203" s="2">
+        <v>29.79</v>
+      </c>
+      <c r="F203" s="2">
+        <v>29.81</v>
+      </c>
+      <c r="G203" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="H203" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="I203" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="J203" s="2">
+        <v>5.37</v>
+      </c>
+      <c r="K203" s="25">
+        <v>1</v>
+      </c>
+      <c r="L203" s="22">
+        <v>14</v>
+      </c>
+      <c r="O203" t="s">
+        <v>88</v>
+      </c>
+      <c r="P203" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A204" s="15">
+        <v>45118</v>
+      </c>
+      <c r="B204" s="2">
+        <v>3</v>
+      </c>
+      <c r="C204" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="D204" s="2">
+        <v>13</v>
+      </c>
+      <c r="E204" s="2">
+        <v>29.81</v>
+      </c>
+      <c r="F204" s="2">
+        <v>29.83</v>
+      </c>
+      <c r="G204" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="H204" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="I204" s="2">
+        <v>6.71</v>
+      </c>
+      <c r="J204" s="2">
+        <v>6.63</v>
+      </c>
+      <c r="K204" s="25">
+        <v>3</v>
+      </c>
+      <c r="L204" s="22">
+        <v>14</v>
+      </c>
+      <c r="O204" t="s">
+        <v>88</v>
+      </c>
+      <c r="P204" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A205" s="15">
+        <v>45118</v>
+      </c>
+      <c r="B205" s="2">
+        <v>4</v>
+      </c>
+      <c r="C205" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="D205" s="2">
+        <v>13</v>
+      </c>
+      <c r="E205" s="2">
+        <v>29.81</v>
+      </c>
+      <c r="F205" s="2">
+        <v>29.83</v>
+      </c>
+      <c r="G205" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="H205" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="I205" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J205" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="K205" s="25">
+        <v>1</v>
+      </c>
+      <c r="L205" s="22">
+        <v>14</v>
+      </c>
+      <c r="O205" t="s">
+        <v>88</v>
+      </c>
+      <c r="P205" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A206" s="15">
+        <v>45118</v>
+      </c>
+      <c r="B206" s="2">
+        <v>5</v>
+      </c>
+      <c r="C206" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="D206" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="E206" s="2">
+        <v>29.82</v>
+      </c>
+      <c r="F206" s="2">
+        <v>29.83</v>
+      </c>
+      <c r="G206" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="H206" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="I206" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J206" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K206" s="25">
+        <v>10</v>
+      </c>
+      <c r="L206" s="22">
+        <v>14</v>
+      </c>
+      <c r="O206" t="s">
+        <v>88</v>
+      </c>
+      <c r="P206" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A207" s="15">
+        <v>45118</v>
+      </c>
+      <c r="B207" s="2">
+        <v>6</v>
+      </c>
+      <c r="C207" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D207" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="E207" s="2">
+        <v>29.81</v>
+      </c>
+      <c r="F207" s="2">
+        <v>29.83</v>
+      </c>
+      <c r="G207" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="H207" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="I207" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="J207" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="K207" s="25">
+        <v>10</v>
+      </c>
+      <c r="L207" s="22">
+        <v>14</v>
+      </c>
+      <c r="O207" t="s">
+        <v>88</v>
+      </c>
+      <c r="P207" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A208" s="15">
+        <v>45118</v>
+      </c>
+      <c r="B208" s="2">
+        <v>7</v>
+      </c>
+      <c r="C208" s="2">
+        <v>13</v>
+      </c>
+      <c r="D208" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="E208" s="2">
+        <v>29.83</v>
+      </c>
+      <c r="F208" s="2">
+        <v>29.83</v>
+      </c>
+      <c r="G208" s="2">
+        <v>7.79</v>
+      </c>
+      <c r="H208" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="I208" s="2">
+        <v>6.37</v>
+      </c>
+      <c r="J208" s="2">
+        <v>6.32</v>
+      </c>
+      <c r="K208" s="25">
+        <v>6</v>
+      </c>
+      <c r="L208" s="22">
+        <v>14</v>
+      </c>
+      <c r="O208" t="s">
+        <v>88</v>
+      </c>
+      <c r="P208" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A209" s="15">
+        <v>45118</v>
+      </c>
+      <c r="B209" s="2">
+        <v>8</v>
+      </c>
+      <c r="C209" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D209" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="E209" s="2">
+        <v>29.82</v>
+      </c>
+      <c r="F209" s="2">
+        <v>29.87</v>
+      </c>
+      <c r="G209" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="H209" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="I209" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J209" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K209" s="25">
+        <v>6</v>
+      </c>
+      <c r="L209" s="22">
+        <v>14</v>
+      </c>
+      <c r="O209" t="s">
+        <v>88</v>
+      </c>
+      <c r="P209" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A210" s="17">
+        <v>45119</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="F210" s="2">
+        <v>29.82</v>
+      </c>
+      <c r="H210" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="J210" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="K210" s="25"/>
+      <c r="M210" s="14">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="N210" s="14">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="O210" t="s">
+        <v>88</v>
+      </c>
+      <c r="P210" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A211" s="17">
+        <v>45119</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2">
+        <v>13</v>
+      </c>
+      <c r="D211" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E211" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="F211" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="G211" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="H211" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="I211" s="2">
+        <v>7.28</v>
+      </c>
+      <c r="J211" s="2">
+        <v>7.01</v>
+      </c>
+      <c r="K211" s="25">
+        <v>4</v>
+      </c>
+      <c r="L211" s="24">
+        <v>14</v>
+      </c>
+      <c r="O211" t="s">
+        <v>88</v>
+      </c>
+      <c r="P211" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A212" s="17">
+        <v>45119</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2</v>
+      </c>
+      <c r="C212" s="2">
+        <v>13</v>
+      </c>
+      <c r="D212" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E212" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="F212" s="2">
+        <v>29.91</v>
+      </c>
+      <c r="G212" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="H212" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="I212" s="2">
+        <v>6.72</v>
+      </c>
+      <c r="J212" s="2">
+        <v>6.51</v>
+      </c>
+      <c r="K212" s="25">
+        <v>12</v>
+      </c>
+      <c r="L212" s="24">
+        <v>14</v>
+      </c>
+      <c r="O212" t="s">
+        <v>88</v>
+      </c>
+      <c r="P212" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A213" s="17">
+        <v>45119</v>
+      </c>
+      <c r="B213" s="2">
+        <v>3</v>
+      </c>
+      <c r="C213" s="2">
+        <v>13</v>
+      </c>
+      <c r="D213" s="2">
+        <v>13</v>
+      </c>
+      <c r="E213" s="2">
+        <v>29.91</v>
+      </c>
+      <c r="F213" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="G213" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H213" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="I213" s="2">
+        <v>7.28</v>
+      </c>
+      <c r="J213" s="2">
+        <v>7.71</v>
+      </c>
+      <c r="K213" s="25">
+        <v>9</v>
+      </c>
+      <c r="L213" s="24">
+        <v>14</v>
+      </c>
+      <c r="O213" t="s">
+        <v>88</v>
+      </c>
+      <c r="P213" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A214" s="17">
+        <v>45119</v>
+      </c>
+      <c r="B214" s="2">
+        <v>4</v>
+      </c>
+      <c r="C214" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="D214" s="2">
+        <v>13</v>
+      </c>
+      <c r="E214" s="2">
+        <v>29.91</v>
+      </c>
+      <c r="F214" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="G214" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="H214" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="I214" s="2">
+        <v>6.65</v>
+      </c>
+      <c r="J214" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="K214" s="25">
+        <v>9</v>
+      </c>
+      <c r="L214" s="24">
+        <v>14</v>
+      </c>
+      <c r="O214" t="s">
+        <v>88</v>
+      </c>
+      <c r="P214" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A215" s="17">
+        <v>45119</v>
+      </c>
+      <c r="B215" s="2">
+        <v>5</v>
+      </c>
+      <c r="C215" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D215" s="2">
+        <v>13</v>
+      </c>
+      <c r="E215" s="2">
+        <v>29.89</v>
+      </c>
+      <c r="F215" s="2">
+        <v>29.89</v>
+      </c>
+      <c r="G215" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="H215" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="I215" s="2">
+        <v>6.91</v>
+      </c>
+      <c r="J215" s="2">
+        <v>6.89</v>
+      </c>
+      <c r="K215" s="25">
+        <v>12</v>
+      </c>
+      <c r="L215" s="24">
+        <v>14</v>
+      </c>
+      <c r="O215" t="s">
+        <v>88</v>
+      </c>
+      <c r="P215" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A216" s="17">
+        <v>45119</v>
+      </c>
+      <c r="B216" s="2">
+        <v>6</v>
+      </c>
+      <c r="C216" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="D216" s="2">
+        <v>13</v>
+      </c>
+      <c r="E216" s="2">
+        <v>29.91</v>
+      </c>
+      <c r="F216" s="2">
+        <v>29.91</v>
+      </c>
+      <c r="G216" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="H216" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="I216" s="2">
+        <v>7.36</v>
+      </c>
+      <c r="J216" s="2">
+        <v>7.43</v>
+      </c>
+      <c r="K216" s="25">
+        <v>10</v>
+      </c>
+      <c r="L216" s="24">
+        <v>14</v>
+      </c>
+      <c r="O216" t="s">
+        <v>88</v>
+      </c>
+      <c r="P216" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A217" s="17">
+        <v>45119</v>
+      </c>
+      <c r="B217" s="2">
+        <v>7</v>
+      </c>
+      <c r="C217" s="2">
+        <v>13</v>
+      </c>
+      <c r="D217" s="2">
+        <v>13</v>
+      </c>
+      <c r="E217" s="2">
+        <v>29.88</v>
+      </c>
+      <c r="F217" s="2">
+        <v>29.89</v>
+      </c>
+      <c r="G217" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="H217" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="I217" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="J217" s="2">
+        <v>7.08</v>
+      </c>
+      <c r="K217" s="25">
+        <v>11</v>
+      </c>
+      <c r="L217" s="24">
+        <v>14</v>
+      </c>
+      <c r="O217" t="s">
+        <v>88</v>
+      </c>
+      <c r="P217" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A218" s="17">
+        <v>45119</v>
+      </c>
+      <c r="B218" s="2">
+        <v>8</v>
+      </c>
+      <c r="C218" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D218" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E218" s="2">
+        <v>29.91</v>
+      </c>
+      <c r="F218" s="2">
+        <v>29.91</v>
+      </c>
+      <c r="G218" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="H218" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="I218" s="2">
+        <v>6.97</v>
+      </c>
+      <c r="J218" s="2">
+        <v>7</v>
+      </c>
+      <c r="K218" s="25">
+        <v>6</v>
+      </c>
+      <c r="L218" s="24">
+        <v>14</v>
+      </c>
+      <c r="O218" t="s">
+        <v>88</v>
+      </c>
+      <c r="P218" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A219" s="15">
+        <v>45120</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="F219" s="2">
+        <v>31.42</v>
+      </c>
+      <c r="H219" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="J219" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="K219" s="25"/>
+      <c r="M219" s="14">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="N219" s="14">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="O219" t="s">
+        <v>26</v>
+      </c>
+      <c r="P219" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A220" s="15">
+        <v>45120</v>
+      </c>
+      <c r="B220" s="2">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D220" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E220" s="2">
+        <v>31.44</v>
+      </c>
+      <c r="F220" s="2">
+        <v>31.48</v>
+      </c>
+      <c r="G220" s="2">
+        <v>8.07</v>
+      </c>
+      <c r="H220" s="2">
+        <v>8</v>
+      </c>
+      <c r="I220" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="J220" s="2">
+        <v>7.61</v>
+      </c>
+      <c r="K220" s="25">
+        <v>14</v>
+      </c>
+      <c r="L220" s="23">
+        <v>14</v>
+      </c>
+      <c r="M220" s="14">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="O220" t="s">
+        <v>26</v>
+      </c>
+      <c r="P220" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A221" s="15">
+        <v>45120</v>
+      </c>
+      <c r="B221" s="2">
+        <v>2</v>
+      </c>
+      <c r="C221" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="D221" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="E221" s="2">
+        <v>31.46</v>
+      </c>
+      <c r="F221" s="2">
+        <v>31.46</v>
+      </c>
+      <c r="G221" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="H221" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="I221" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="J221" s="2">
+        <v>7.63</v>
+      </c>
+      <c r="K221" s="25">
+        <v>12</v>
+      </c>
+      <c r="L221" s="23">
+        <v>14</v>
+      </c>
+      <c r="M221" s="14">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="O221" t="s">
+        <v>26</v>
+      </c>
+      <c r="P221" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A222" s="15">
+        <v>45120</v>
+      </c>
+      <c r="B222" s="2">
+        <v>3</v>
+      </c>
+      <c r="C222" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="D222" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="E222" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="F222" s="2">
+        <v>31.48</v>
+      </c>
+      <c r="G222" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="H222" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="I222" s="2">
+        <v>7.76</v>
+      </c>
+      <c r="J222" s="2">
+        <v>7.49</v>
+      </c>
+      <c r="K222" s="25">
+        <v>6</v>
+      </c>
+      <c r="L222" s="23">
+        <v>14</v>
+      </c>
+      <c r="M222" s="14">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="O222" t="s">
+        <v>26</v>
+      </c>
+      <c r="P222" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A223" s="15">
+        <v>45120</v>
+      </c>
+      <c r="B223" s="2">
+        <v>4</v>
+      </c>
+      <c r="C223" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D223" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="E223" s="2">
+        <v>31.49</v>
+      </c>
+      <c r="F223" s="2">
+        <v>31.48</v>
+      </c>
+      <c r="G223" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="H223" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="I223" s="2">
+        <v>7.81</v>
+      </c>
+      <c r="J223" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="K223" s="25">
+        <v>12</v>
+      </c>
+      <c r="L223" s="23">
+        <v>14</v>
+      </c>
+      <c r="M223" s="14">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="O223" t="s">
+        <v>26</v>
+      </c>
+      <c r="P223" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A224" s="15">
+        <v>45120</v>
+      </c>
+      <c r="B224" s="2">
+        <v>5</v>
+      </c>
+      <c r="C224" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="D224" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="E224" s="2">
+        <v>31.46</v>
+      </c>
+      <c r="F224" s="2">
+        <v>31.47</v>
+      </c>
+      <c r="G224" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="H224" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="I224" s="2">
+        <v>7.32</v>
+      </c>
+      <c r="J224" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="K224" s="25">
+        <v>12</v>
+      </c>
+      <c r="L224" s="23">
+        <v>14</v>
+      </c>
+      <c r="M224" s="14">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="O224" t="s">
+        <v>26</v>
+      </c>
+      <c r="P224" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A225" s="15">
+        <v>45120</v>
+      </c>
+      <c r="B225" s="2">
+        <v>6</v>
+      </c>
+      <c r="C225" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D225" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="E225" s="2">
+        <v>31.48</v>
+      </c>
+      <c r="F225" s="2">
+        <v>31.45</v>
+      </c>
+      <c r="G225" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="H225" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I225" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="J225" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="K225" s="25">
+        <v>10</v>
+      </c>
+      <c r="L225" s="23">
+        <v>14</v>
+      </c>
+      <c r="M225" s="14">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="O225" t="s">
+        <v>26</v>
+      </c>
+      <c r="P225" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A226" s="15">
+        <v>45120</v>
+      </c>
+      <c r="B226" s="2">
+        <v>7</v>
+      </c>
+      <c r="C226" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="D226" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="E226" s="2">
+        <v>31.46</v>
+      </c>
+      <c r="F226" s="2">
+        <v>31.46</v>
+      </c>
+      <c r="G226" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="H226" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="I226" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="J226" s="2">
+        <v>7.77</v>
+      </c>
+      <c r="K226" s="25">
+        <v>12</v>
+      </c>
+      <c r="L226" s="23">
+        <v>14</v>
+      </c>
+      <c r="M226" s="14">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O226" t="s">
+        <v>26</v>
+      </c>
+      <c r="P226" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A227" s="15">
+        <v>45120</v>
+      </c>
+      <c r="B227" s="2">
+        <v>8</v>
+      </c>
+      <c r="C227" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="D227" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="E227" s="2">
+        <v>31.45</v>
+      </c>
+      <c r="F227" s="2">
+        <v>31.45</v>
+      </c>
+      <c r="G227" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="H227" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="I227" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="J227" s="2">
+        <v>8.01</v>
+      </c>
+      <c r="K227" s="25">
+        <v>14</v>
+      </c>
+      <c r="L227" s="23">
+        <v>14</v>
+      </c>
+      <c r="M227" s="14">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="O227" t="s">
+        <v>26</v>
+      </c>
+      <c r="P227" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A228" s="15">
+        <v>45121</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="F228" s="2">
+        <v>31.29</v>
+      </c>
+      <c r="H228" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="J228" s="2">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="K228" s="25"/>
+      <c r="M228" s="14">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="N228" s="14">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="O228" t="s">
+        <v>26</v>
+      </c>
+      <c r="P228" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A229" s="15">
+        <v>45121</v>
+      </c>
+      <c r="B229" s="2">
+        <v>1</v>
+      </c>
+      <c r="C229" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D229" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="E229" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="F229" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="G229" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="H229" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="I229" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="J229" s="2">
+        <v>6.96</v>
+      </c>
+      <c r="K229" s="25">
+        <v>6</v>
+      </c>
+      <c r="L229" s="23">
+        <v>14</v>
+      </c>
+      <c r="M229" s="14">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="O229" t="s">
+        <v>26</v>
+      </c>
+      <c r="P229" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A230" s="15">
+        <v>45121</v>
+      </c>
+      <c r="B230" s="2">
+        <v>2</v>
+      </c>
+      <c r="C230" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D230" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E230" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="F230" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="G230" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="H230" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="I230" s="2">
+        <v>7.33</v>
+      </c>
+      <c r="J230" s="2">
+        <v>7.19</v>
+      </c>
+      <c r="K230" s="25">
+        <v>12</v>
+      </c>
+      <c r="L230" s="23">
+        <v>14</v>
+      </c>
+      <c r="M230" s="14">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="O230" t="s">
+        <v>26</v>
+      </c>
+      <c r="P230" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A231" s="15">
+        <v>45121</v>
+      </c>
+      <c r="B231" s="2">
+        <v>3</v>
+      </c>
+      <c r="C231" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="D231" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E231" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="F231" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="G231" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="H231" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="I231" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="J231" s="2">
+        <v>7.12</v>
+      </c>
+      <c r="K231" s="25">
+        <v>10</v>
+      </c>
+      <c r="L231" s="23">
+        <v>14</v>
+      </c>
+      <c r="M231" s="14">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="O231" t="s">
+        <v>26</v>
+      </c>
+      <c r="P231" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A232" s="15">
+        <v>45121</v>
+      </c>
+      <c r="B232" s="2">
+        <v>4</v>
+      </c>
+      <c r="C232" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D232" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E232" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="F232" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="G232" s="2">
+        <v>7.99</v>
+      </c>
+      <c r="H232" s="2">
+        <v>8</v>
+      </c>
+      <c r="I232" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="J232" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="K232" s="25">
+        <v>12</v>
+      </c>
+      <c r="L232" s="23">
+        <v>14</v>
+      </c>
+      <c r="M232" s="14">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="O232" t="s">
+        <v>26</v>
+      </c>
+      <c r="P232" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A233" s="15">
+        <v>45121</v>
+      </c>
+      <c r="B233" s="2">
+        <v>5</v>
+      </c>
+      <c r="C233" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="D233" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E233" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="F233" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="G233" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="H233" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="I233" s="2">
+        <v>6.86</v>
+      </c>
+      <c r="J233" s="2">
+        <v>6.71</v>
+      </c>
+      <c r="K233" s="25">
+        <v>12</v>
+      </c>
+      <c r="L233" s="23">
+        <v>14</v>
+      </c>
+      <c r="M233" s="14">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="O233" t="s">
+        <v>26</v>
+      </c>
+      <c r="P233" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A234" s="15">
+        <v>45121</v>
+      </c>
+      <c r="B234" s="2">
+        <v>6</v>
+      </c>
+      <c r="C234" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D234" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E234" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="F234" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="G234" s="2">
+        <v>8.07</v>
+      </c>
+      <c r="H234" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="I234" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="J234" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="K234" s="25">
+        <v>12</v>
+      </c>
+      <c r="L234" s="23">
+        <v>14</v>
+      </c>
+      <c r="M234" s="14">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="O234" t="s">
+        <v>26</v>
+      </c>
+      <c r="P234" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A235" s="15">
+        <v>45121</v>
+      </c>
+      <c r="B235" s="2">
+        <v>7</v>
+      </c>
+      <c r="C235" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D235" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E235" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="F235" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="G235" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="H235" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="I235" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="J235" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="K235" s="25">
+        <v>13</v>
+      </c>
+      <c r="L235" s="23">
+        <v>14</v>
+      </c>
+      <c r="M235" s="14">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O235" t="s">
+        <v>26</v>
+      </c>
+      <c r="P235" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A236" s="15">
+        <v>45121</v>
+      </c>
+      <c r="B236" s="2">
+        <v>8</v>
+      </c>
+      <c r="C236" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D236" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E236" s="2">
+        <v>31.35</v>
+      </c>
+      <c r="F236" s="2">
+        <v>31.08</v>
+      </c>
+      <c r="G236" s="2">
+        <v>8.01</v>
+      </c>
+      <c r="H236" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="I236" s="2">
+        <v>7.51</v>
+      </c>
+      <c r="J236" s="2">
+        <v>7.29</v>
+      </c>
+      <c r="K236" s="25">
+        <v>14</v>
+      </c>
+      <c r="L236" s="23">
+        <v>14</v>
+      </c>
+      <c r="M236" s="14">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="O236" t="s">
+        <v>26</v>
+      </c>
+      <c r="P236" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A237" s="15">
+        <v>45124</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="F237" s="2">
+        <v>31.31</v>
+      </c>
+      <c r="H237" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="J237" s="2">
+        <v>7.18</v>
+      </c>
+      <c r="K237" s="25"/>
+      <c r="M237" s="14">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="N237" s="14">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="O237" t="s">
+        <v>26</v>
+      </c>
+      <c r="P237" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A238" s="15">
+        <v>45124</v>
+      </c>
+      <c r="B238" s="2">
+        <v>1</v>
+      </c>
+      <c r="C238" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="D238" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="E238" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="F238" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="G238" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="H238" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="I238" s="2">
+        <v>5.93</v>
+      </c>
+      <c r="J238" s="2">
+        <v>5.73</v>
+      </c>
+      <c r="K238" s="25">
+        <v>4</v>
+      </c>
+      <c r="L238" s="23">
+        <v>14</v>
+      </c>
+      <c r="M238" s="14">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="O238" t="s">
+        <v>26</v>
+      </c>
+      <c r="P238" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A239" s="15">
+        <v>45124</v>
+      </c>
+      <c r="B239" s="2">
+        <v>2</v>
+      </c>
+      <c r="C239" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="D239" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E239" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="F239" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="G239" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="H239" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="I239" s="2">
+        <v>6.32</v>
+      </c>
+      <c r="J239" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="K239" s="25">
+        <v>9</v>
+      </c>
+      <c r="L239" s="23">
+        <v>14</v>
+      </c>
+      <c r="M239" s="14">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="O239" t="s">
+        <v>26</v>
+      </c>
+      <c r="P239" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A240" s="15">
+        <v>45124</v>
+      </c>
+      <c r="B240" s="2">
+        <v>3</v>
+      </c>
+      <c r="C240" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="D240" s="2">
+        <v>14</v>
+      </c>
+      <c r="E240" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="F240" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="G240" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="H240" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="I240" s="2">
+        <v>6.39</v>
+      </c>
+      <c r="J240" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="K240" s="25">
+        <v>3</v>
+      </c>
+      <c r="L240" s="23">
+        <v>14</v>
+      </c>
+      <c r="M240" s="14">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="O240" t="s">
+        <v>26</v>
+      </c>
+      <c r="P240" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A241" s="15">
+        <v>45124</v>
+      </c>
+      <c r="B241" s="2">
+        <v>4</v>
+      </c>
+      <c r="C241" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="D241" s="2">
+        <v>14</v>
+      </c>
+      <c r="E241" s="2">
+        <v>31.41</v>
+      </c>
+      <c r="F241" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="G241" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="H241" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="I241" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="J241" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="K241" s="25">
+        <v>4</v>
+      </c>
+      <c r="L241" s="23">
+        <v>14</v>
+      </c>
+      <c r="M241" s="14">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="O241" t="s">
+        <v>26</v>
+      </c>
+      <c r="P241" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A242" s="15">
+        <v>45124</v>
+      </c>
+      <c r="B242" s="2">
+        <v>5</v>
+      </c>
+      <c r="C242" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="D242" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E242" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="F242" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="G242" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H242" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="I242" s="2">
+        <v>6.11</v>
+      </c>
+      <c r="J242" s="2">
+        <v>6</v>
+      </c>
+      <c r="K242" s="25">
+        <v>8</v>
+      </c>
+      <c r="L242" s="23">
+        <v>14</v>
+      </c>
+      <c r="M242" s="14">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="O242" t="s">
+        <v>26</v>
+      </c>
+      <c r="P242" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A243" s="15">
+        <v>45124</v>
+      </c>
+      <c r="B243" s="2">
+        <v>6</v>
+      </c>
+      <c r="C243" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="D243" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="E243" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="F243" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="G243" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="H243" s="2">
+        <v>7.97</v>
+      </c>
+      <c r="I243" s="2">
+        <v>6.55</v>
+      </c>
+      <c r="J243" s="2">
+        <v>6.77</v>
+      </c>
+      <c r="K243" s="25">
+        <v>10</v>
+      </c>
+      <c r="L243" s="23">
+        <v>14</v>
+      </c>
+      <c r="M243" s="14">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O243" t="s">
+        <v>26</v>
+      </c>
+      <c r="P243" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A244" s="15">
+        <v>45124</v>
+      </c>
+      <c r="B244" s="2">
+        <v>7</v>
+      </c>
+      <c r="C244" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="D244" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="E244" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="F244" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="G244" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="H244" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="I244" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="J244" s="2">
+        <v>6.06</v>
+      </c>
+      <c r="K244" s="25">
+        <v>7</v>
+      </c>
+      <c r="L244" s="23">
+        <v>14</v>
+      </c>
+      <c r="M244" s="14">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="O244" t="s">
+        <v>26</v>
+      </c>
+      <c r="P244" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A245" s="15">
+        <v>45124</v>
+      </c>
+      <c r="B245" s="2">
+        <v>8</v>
+      </c>
+      <c r="C245" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="D245" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E245" s="2">
+        <v>31.39</v>
+      </c>
+      <c r="F245" s="2">
+        <v>31.36</v>
+      </c>
+      <c r="G245" s="2">
+        <v>7.97</v>
+      </c>
+      <c r="H245" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="I245" s="2">
+        <v>6.71</v>
+      </c>
+      <c r="J245" s="2">
+        <v>6.65</v>
+      </c>
+      <c r="K245" s="25">
+        <v>12</v>
+      </c>
+      <c r="L245" s="23">
+        <v>14</v>
+      </c>
+      <c r="M245" s="14">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="O245" t="s">
+        <v>26</v>
+      </c>
+      <c r="P245" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B246" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B247" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B248" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B249" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B250" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B251" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B252" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B253" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B254" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B255" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B257" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B258" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B259" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B260" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B261" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B262" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B263" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B264" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B265" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B266" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B267" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B268" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B269" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B270" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B271" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B272" s="2">
         <v>8</v>
       </c>
     </row>
